--- a/predictions полгода до/прогнозы_SARIMA_122.xlsx
+++ b/predictions полгода до/прогнозы_SARIMA_122.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M77"/>
+  <dimension ref="A1:M51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,40 +446,40 @@
         </is>
       </c>
       <c r="B1" s="2" t="n">
-        <v>45108</v>
+        <v>45139</v>
       </c>
       <c r="C1" s="2" t="n">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="D1" s="2" t="n">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="E1" s="2" t="n">
-        <v>45200</v>
+        <v>45231</v>
       </c>
       <c r="F1" s="2" t="n">
-        <v>45231</v>
+        <v>45261</v>
       </c>
       <c r="G1" s="2" t="n">
-        <v>45261</v>
+        <v>45292</v>
       </c>
       <c r="H1" s="2" t="n">
-        <v>45292</v>
+        <v>45323</v>
       </c>
       <c r="I1" s="2" t="n">
-        <v>45323</v>
+        <v>45352</v>
       </c>
       <c r="J1" s="2" t="n">
-        <v>45352</v>
+        <v>45383</v>
       </c>
       <c r="K1" s="2" t="n">
-        <v>45383</v>
+        <v>45413</v>
       </c>
       <c r="L1" s="2" t="n">
-        <v>45413</v>
+        <v>45444</v>
       </c>
       <c r="M1" s="2" t="n">
-        <v>45444</v>
+        <v>45474</v>
       </c>
     </row>
     <row r="2">
@@ -489,40 +489,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>22708483.52873457</v>
+        <v>22844936.45304205</v>
       </c>
       <c r="C2" t="n">
-        <v>27200523.01996366</v>
+        <v>19923689.85830687</v>
       </c>
       <c r="D2" t="n">
-        <v>23487256.04259037</v>
+        <v>14608496.33538538</v>
       </c>
       <c r="E2" t="n">
-        <v>15529063.82690556</v>
+        <v>19591653.87277812</v>
       </c>
       <c r="F2" t="n">
-        <v>23935334.6605824</v>
+        <v>18680489.17836162</v>
       </c>
       <c r="G2" t="n">
-        <v>22795636.98502762</v>
+        <v>13165104.60189301</v>
       </c>
       <c r="H2" t="n">
-        <v>17978051.70371931</v>
+        <v>19097165.1498735</v>
       </c>
       <c r="I2" t="n">
-        <v>25262338.75054064</v>
+        <v>17308635.11674033</v>
       </c>
       <c r="J2" t="n">
-        <v>22845147.95506771</v>
+        <v>14335083.85211769</v>
       </c>
       <c r="K2" t="n">
-        <v>21371135.27212642</v>
+        <v>8956401.789099557</v>
       </c>
       <c r="L2" t="n">
-        <v>15816975.37875993</v>
+        <v>12236149.32460348</v>
       </c>
       <c r="M2" t="n">
-        <v>20432574.26624253</v>
+        <v>10608939.67715203</v>
       </c>
     </row>
     <row r="3">
@@ -532,3222 +532,2104 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>11522585.23862959</v>
+        <v>9238372.681019785</v>
       </c>
       <c r="C3" t="n">
-        <v>9956972.057098158</v>
+        <v>11662874.10248757</v>
       </c>
       <c r="D3" t="n">
-        <v>12735611.86319606</v>
+        <v>15027834.37673866</v>
       </c>
       <c r="E3" t="n">
-        <v>14787789.34861463</v>
+        <v>17185647.81858298</v>
       </c>
       <c r="F3" t="n">
-        <v>16304756.48248922</v>
+        <v>26130516.27219424</v>
       </c>
       <c r="G3" t="n">
-        <v>23700241.17573789</v>
+        <v>17684007.72631291</v>
       </c>
       <c r="H3" t="n">
-        <v>15613485.55697704</v>
+        <v>19594898.57334282</v>
       </c>
       <c r="I3" t="n">
-        <v>16763387.19371454</v>
+        <v>41915388.98544152</v>
       </c>
       <c r="J3" t="n">
-        <v>36167913.20013364</v>
+        <v>26305768.94752945</v>
       </c>
       <c r="K3" t="n">
-        <v>21659396.81888146</v>
+        <v>36318711.78940594</v>
       </c>
       <c r="L3" t="n">
-        <v>30058910.98891579</v>
+        <v>30576014.28806093</v>
       </c>
       <c r="M3" t="n">
-        <v>24372257.92469045</v>
+        <v>27965952.2964047</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>ИПР Актобе (Kz)</t>
+          <t>Отдел Ковригин  (Kz)</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4586458.420616893</v>
+        <v>13783230.94081723</v>
       </c>
       <c r="C4" t="n">
-        <v>2839873.82279714</v>
+        <v>19682853.91194566</v>
       </c>
       <c r="D4" t="n">
-        <v>6050448.19688198</v>
+        <v>22982488.39941834</v>
       </c>
       <c r="E4" t="n">
-        <v>6804200.491742427</v>
+        <v>25010684.6453701</v>
       </c>
       <c r="F4" t="n">
-        <v>6406258.514634762</v>
+        <v>27688059.86870205</v>
       </c>
       <c r="G4" t="n">
-        <v>6753472.8437912</v>
+        <v>29162820.44910388</v>
       </c>
       <c r="H4" t="n">
-        <v>5902845.737511437</v>
+        <v>31068196.40020601</v>
       </c>
       <c r="I4" t="n">
-        <v>5483674.661859013</v>
+        <v>31359267.96177063</v>
       </c>
       <c r="J4" t="n">
-        <v>3323638.348182715</v>
+        <v>34818166.421353</v>
       </c>
       <c r="K4" t="n">
-        <v>4451632.106553603</v>
+        <v>36902734.46599212</v>
       </c>
       <c r="L4" t="n">
-        <v>3933499.499056374</v>
+        <v>40576877.15167809</v>
       </c>
       <c r="M4" t="n">
-        <v>4662644.006921177</v>
+        <v>44976395.95841477</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>ИПР Павлодар (Kz)</t>
+          <t>Отдел Концевой</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4464425.188128817</v>
+        <v>18434710.22827737</v>
       </c>
       <c r="C5" t="n">
-        <v>6642973.856779462</v>
+        <v>21312048.95192134</v>
       </c>
       <c r="D5" t="n">
-        <v>8844634.378324114</v>
+        <v>22856835.06691137</v>
       </c>
       <c r="E5" t="n">
-        <v>11053211.6836472</v>
+        <v>27024506.10076933</v>
       </c>
       <c r="F5" t="n">
-        <v>13263915.21990572</v>
+        <v>49812807.94173978</v>
       </c>
       <c r="G5" t="n">
-        <v>15475150.33031067</v>
+        <v>18263776.37632905</v>
       </c>
       <c r="H5" t="n">
-        <v>17686444.6418671</v>
+        <v>32153571.48812892</v>
       </c>
       <c r="I5" t="n">
-        <v>19897141.72167275</v>
+        <v>29218937.25176972</v>
       </c>
       <c r="J5" t="n">
-        <v>22105912.44578387</v>
+        <v>37262963.3903909</v>
       </c>
       <c r="K5" t="n">
-        <v>24404870.15655715</v>
+        <v>40909798.24091516</v>
       </c>
       <c r="L5" t="n">
-        <v>27400626.46571941</v>
+        <v>43215372.30881409</v>
       </c>
       <c r="M5" t="n">
-        <v>31507691.37954476</v>
+        <v>38266067.04939537</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>ИПР Апатиты</t>
+          <t>Отдел Мараев (АлРоса)</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-913079.3614494316</v>
+        <v>-1421632.442756414</v>
       </c>
       <c r="C6" t="n">
-        <v>-2578456.55399771</v>
+        <v>3540469.058742486</v>
       </c>
       <c r="D6" t="n">
-        <v>-1849117.739685235</v>
+        <v>-4507540.378722692</v>
       </c>
       <c r="E6" t="n">
-        <v>-2220614.591081968</v>
+        <v>3767883.301485439</v>
       </c>
       <c r="F6" t="n">
-        <v>3143300.080363973</v>
+        <v>-2733307.521271734</v>
       </c>
       <c r="G6" t="n">
-        <v>35144165.39881703</v>
+        <v>-4614667.0434777</v>
       </c>
       <c r="H6" t="n">
-        <v>-3135845.599698074</v>
+        <v>1483302.316482921</v>
       </c>
       <c r="I6" t="n">
-        <v>1801726.857043148</v>
+        <v>2348458.644097695</v>
       </c>
       <c r="J6" t="n">
-        <v>-1376547.308463883</v>
+        <v>-4779377.928269696</v>
       </c>
       <c r="K6" t="n">
-        <v>-1800704.797869723</v>
+        <v>5261605.526911791</v>
       </c>
       <c r="L6" t="n">
-        <v>10317897.17267434</v>
+        <v>-8363139.259262428</v>
       </c>
       <c r="M6" t="n">
-        <v>-1073909.724040376</v>
+        <v>-2680386.697220727</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>ИПР Балаково</t>
+          <t>Отдел Мищенко (МетИнв)</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1065893.474214794</v>
+        <v>9618271.141664866</v>
       </c>
       <c r="C7" t="n">
-        <v>1951976.745569762</v>
+        <v>9969540.932786642</v>
       </c>
       <c r="D7" t="n">
-        <v>1753368.554911824</v>
+        <v>13772757.51402675</v>
       </c>
       <c r="E7" t="n">
-        <v>1446038.705522356</v>
+        <v>11345842.39295289</v>
       </c>
       <c r="F7" t="n">
-        <v>2059580.23252664</v>
+        <v>14258509.88569102</v>
       </c>
       <c r="G7" t="n">
-        <v>3987202.171990546</v>
+        <v>13557368.61256541</v>
       </c>
       <c r="H7" t="n">
-        <v>-380409.0711027607</v>
+        <v>16955907.6592956</v>
       </c>
       <c r="I7" t="n">
-        <v>2716242.706681062</v>
+        <v>19060881.20410476</v>
       </c>
       <c r="J7" t="n">
-        <v>1929279.521849231</v>
+        <v>20282965.89623315</v>
       </c>
       <c r="K7" t="n">
-        <v>2380075.718237915</v>
+        <v>23570699.00739287</v>
       </c>
       <c r="L7" t="n">
-        <v>805211.1015001885</v>
+        <v>21373094.1793866</v>
       </c>
       <c r="M7" t="n">
-        <v>4602292.698082821</v>
+        <v>25647164.75326366</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>ИПР Волхов ФСА</t>
+          <t>Отдел Попов</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2889226.396875162</v>
+        <v>10276092.90439384</v>
       </c>
       <c r="C8" t="n">
-        <v>1810826.081711728</v>
+        <v>12563951.14415392</v>
       </c>
       <c r="D8" t="n">
-        <v>962541.7354899246</v>
+        <v>12505874.55017911</v>
       </c>
       <c r="E8" t="n">
-        <v>1390719.657994815</v>
+        <v>12506032.55680812</v>
       </c>
       <c r="F8" t="n">
-        <v>1038910.746597377</v>
+        <v>21263602.38835838</v>
       </c>
       <c r="G8" t="n">
-        <v>1742661.488108728</v>
+        <v>7278009.128501553</v>
       </c>
       <c r="H8" t="n">
-        <v>1227900.938045931</v>
+        <v>18974698.23218209</v>
       </c>
       <c r="I8" t="n">
-        <v>1508433.029993975</v>
+        <v>18357586.02861963</v>
       </c>
       <c r="J8" t="n">
-        <v>1171556.303003739</v>
+        <v>19973421.68583213</v>
       </c>
       <c r="K8" t="n">
-        <v>1286417.958533422</v>
+        <v>20282535.19216559</v>
       </c>
       <c r="L8" t="n">
-        <v>2157987.713638921</v>
+        <v>18172989.26817585</v>
       </c>
       <c r="M8" t="n">
-        <v>1758770.383097059</v>
+        <v>17352907.39490836</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>ИПР Еврохим УКК</t>
+          <t>Отдел Филиппов</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4553583.656874868</v>
+        <v>31121191.13107349</v>
       </c>
       <c r="C9" t="n">
-        <v>3360607.780285045</v>
+        <v>30549990.74913171</v>
       </c>
       <c r="D9" t="n">
-        <v>5279546.532677375</v>
+        <v>30407068.2334258</v>
       </c>
       <c r="E9" t="n">
-        <v>4086609.473554453</v>
+        <v>31507121.78430622</v>
       </c>
       <c r="F9" t="n">
-        <v>6005508.577804928</v>
+        <v>46795825.42093499</v>
       </c>
       <c r="G9" t="n">
-        <v>4812609.416752987</v>
+        <v>26333263.47615017</v>
       </c>
       <c r="H9" t="n">
-        <v>6731467.673948479</v>
+        <v>23638410.11726562</v>
       </c>
       <c r="I9" t="n">
-        <v>6058309.839801072</v>
+        <v>33001174.71496184</v>
       </c>
       <c r="J9" t="n">
-        <v>8645644.812623542</v>
+        <v>31736786.22059843</v>
       </c>
       <c r="K9" t="n">
-        <v>7748042.188507613</v>
+        <v>37902425.28777523</v>
       </c>
       <c r="L9" t="n">
-        <v>10520497.40426172</v>
+        <v>40858475.42641839</v>
       </c>
       <c r="M9" t="n">
-        <v>8444223.120004656</v>
+        <v>41385117.77748636</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>ИПР Череповец ФСА</t>
+          <t>Отдел Шугай (Русал)</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2439989.379951268</v>
+        <v>29707990.09858387</v>
       </c>
       <c r="C10" t="n">
-        <v>4305030.070751367</v>
+        <v>37626971.4893556</v>
       </c>
       <c r="D10" t="n">
-        <v>4662901.852028854</v>
+        <v>46962726.84942077</v>
       </c>
       <c r="E10" t="n">
-        <v>2988440.516832558</v>
+        <v>56675179.96230093</v>
       </c>
       <c r="F10" t="n">
-        <v>4166288.565328246</v>
+        <v>67799620.64982289</v>
       </c>
       <c r="G10" t="n">
-        <v>8872908.231908679</v>
+        <v>77616687.53327407</v>
       </c>
       <c r="H10" t="n">
-        <v>1700823.037810333</v>
+        <v>89685461.90509148</v>
       </c>
       <c r="I10" t="n">
-        <v>4168951.240416546</v>
+        <v>104072144.7413175</v>
       </c>
       <c r="J10" t="n">
-        <v>5222343.187420703</v>
+        <v>118170466.4729105</v>
       </c>
       <c r="K10" t="n">
-        <v>7158367.389595643</v>
+        <v>130454624.0418587</v>
       </c>
       <c r="L10" t="n">
-        <v>6722819.972910622</v>
+        <v>143016262.4484608</v>
       </c>
       <c r="M10" t="n">
-        <v>5400407.94417574</v>
+        <v>159705590.4641269</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>ИПР Алроса</t>
+          <t>Отдел Ясиновер (УГМК)</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4231186.402365757</v>
+        <v>16984356.20813594</v>
       </c>
       <c r="C11" t="n">
-        <v>2538520.713136573</v>
+        <v>18884482.3149344</v>
       </c>
       <c r="D11" t="n">
-        <v>7738724.28046801</v>
+        <v>21892420.88577714</v>
       </c>
       <c r="E11" t="n">
-        <v>968495.8622012306</v>
+        <v>22883115.25658924</v>
       </c>
       <c r="F11" t="n">
-        <v>8134875.59339787</v>
+        <v>22248504.2809772</v>
       </c>
       <c r="G11" t="n">
-        <v>2244484.986942995</v>
+        <v>21389775.8693307</v>
       </c>
       <c r="H11" t="n">
-        <v>1550246.244535305</v>
+        <v>23574102.75297648</v>
       </c>
       <c r="I11" t="n">
-        <v>7781399.09247708</v>
+        <v>24213476.47707388</v>
       </c>
       <c r="J11" t="n">
-        <v>7656802.937169613</v>
+        <v>26195109.76363395</v>
       </c>
       <c r="K11" t="n">
-        <v>4005287.337868496</v>
+        <v>27563459.96399554</v>
       </c>
       <c r="L11" t="n">
-        <v>15048210.81834781</v>
+        <v>31717835.21032776</v>
       </c>
       <c r="M11" t="n">
-        <v>2176301.565040167</v>
+        <v>34366988.73582838</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>ИПР ММК</t>
+          <t>Менеджер ОРСТП 1</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>57677.47634805366</v>
+        <v>35111010.04189911</v>
       </c>
       <c r="C12" t="n">
-        <v>-410449.5941188987</v>
+        <v>38736320.80864442</v>
       </c>
       <c r="D12" t="n">
-        <v>-127557.4417749485</v>
+        <v>46446052.72809049</v>
       </c>
       <c r="E12" t="n">
-        <v>-913216.4753115159</v>
+        <v>47361554.1439945</v>
       </c>
       <c r="F12" t="n">
-        <v>357554.8981636025</v>
+        <v>40384278.26820533</v>
       </c>
       <c r="G12" t="n">
-        <v>177489.7378542111</v>
+        <v>39400792.40098511</v>
       </c>
       <c r="H12" t="n">
-        <v>-374252.0094886544</v>
+        <v>42906276.69611119</v>
       </c>
       <c r="I12" t="n">
-        <v>17070.99225954199</v>
+        <v>41350107.97389726</v>
       </c>
       <c r="J12" t="n">
-        <v>1256497.780159405</v>
+        <v>51618932.17462078</v>
       </c>
       <c r="K12" t="n">
-        <v>-1188104.969981554</v>
+        <v>51012851.91876899</v>
       </c>
       <c r="L12" t="n">
-        <v>-1614978.775665423</v>
+        <v>55076473.36217383</v>
       </c>
       <c r="M12" t="n">
-        <v>-2192617.239865639</v>
+        <v>57083130.83241759</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>ИПР Лебединский ГОК</t>
+          <t>Менеджер ОРСТП 2</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3364287.707904216</v>
+        <v>37153765.46739027</v>
       </c>
       <c r="C13" t="n">
-        <v>2384689.962380115</v>
+        <v>48402830.30722534</v>
       </c>
       <c r="D13" t="n">
-        <v>2780933.944840525</v>
+        <v>51412887.32984651</v>
       </c>
       <c r="E13" t="n">
-        <v>3774651.153902608</v>
+        <v>53234852.95323458</v>
       </c>
       <c r="F13" t="n">
-        <v>3068272.353107044</v>
+        <v>44862798.97930703</v>
       </c>
       <c r="G13" t="n">
-        <v>3500965.66864715</v>
+        <v>54863776.13383721</v>
       </c>
       <c r="H13" t="n">
-        <v>3455215.11220317</v>
+        <v>53521626.88363462</v>
       </c>
       <c r="I13" t="n">
-        <v>3414147.822552623</v>
+        <v>45941633.63916996</v>
       </c>
       <c r="J13" t="n">
-        <v>5517717.075831541</v>
+        <v>56563505.44924131</v>
       </c>
       <c r="K13" t="n">
-        <v>4639463.053395151</v>
+        <v>63390802.59292132</v>
       </c>
       <c r="L13" t="n">
-        <v>7239212.569691793</v>
+        <v>67007870.28319415</v>
       </c>
       <c r="M13" t="n">
-        <v>5382489.744967449</v>
+        <v>77439179.58559155</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>ИПР Металлоинвест</t>
+          <t>ОПП Владивосток</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-142566.3490778804</v>
+        <v>3563008.667588422</v>
       </c>
       <c r="C14" t="n">
-        <v>-476260.3127911258</v>
+        <v>4908222.829469237</v>
       </c>
       <c r="D14" t="n">
-        <v>-965940.9988416666</v>
+        <v>6428945.285338718</v>
       </c>
       <c r="E14" t="n">
-        <v>255829.2488374421</v>
+        <v>7776540.860883847</v>
       </c>
       <c r="F14" t="n">
-        <v>-1400170.590559467</v>
+        <v>9294914.213465696</v>
       </c>
       <c r="G14" t="n">
-        <v>-1083238.862703625</v>
+        <v>10644827.02000575</v>
       </c>
       <c r="H14" t="n">
-        <v>-1623584.929422664</v>
+        <v>12836524.96571781</v>
       </c>
       <c r="I14" t="n">
-        <v>-1141979.532639079</v>
+        <v>14600428.88885679</v>
       </c>
       <c r="J14" t="n">
-        <v>-929298.5875741949</v>
+        <v>16034328.34975704</v>
       </c>
       <c r="K14" t="n">
-        <v>-933777.8686601004</v>
+        <v>17128346.56486368</v>
       </c>
       <c r="L14" t="n">
-        <v>-1831799.337644389</v>
+        <v>20463856.99550412</v>
       </c>
       <c r="M14" t="n">
-        <v>-2188341.210979803</v>
+        <v>25085917.71382836</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>ИПР Михайловский ГОК</t>
+          <t>ОПП Воронеж</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>4765049.589530222</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>3408274.484052749</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>3467734.212987293</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>5067095.530344804</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>3966838.115882428</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>3651689.620649531</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>3461693.612900782</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>4983010.306989284</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>4706096.060490634</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>2332779.360269947</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>3068767.84500502</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>1899847.196908623</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>ИПР ОЭМК</t>
+          <t>ОПП Казань+Чувашия</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>2089061.964319968</v>
+        <v>7032533.159195633</v>
       </c>
       <c r="C16" t="n">
-        <v>1660947.889621755</v>
+        <v>18545861.25476295</v>
       </c>
       <c r="D16" t="n">
-        <v>1889874.068736497</v>
+        <v>16119193.54386861</v>
       </c>
       <c r="E16" t="n">
-        <v>2153725.916918277</v>
+        <v>22840674.57973314</v>
       </c>
       <c r="F16" t="n">
-        <v>2019831.064567984</v>
+        <v>20085085.23128749</v>
       </c>
       <c r="G16" t="n">
-        <v>4508771.26333932</v>
+        <v>23084358.29737558</v>
       </c>
       <c r="H16" t="n">
-        <v>2779000.910799711</v>
+        <v>14845236.89868664</v>
       </c>
       <c r="I16" t="n">
-        <v>4561308.346676457</v>
+        <v>17843612.76265248</v>
       </c>
       <c r="J16" t="n">
-        <v>4455986.255582828</v>
+        <v>20335861.15683361</v>
       </c>
       <c r="K16" t="n">
-        <v>4837012.281981748</v>
+        <v>18160765.14261815</v>
       </c>
       <c r="L16" t="n">
-        <v>6013768.206180182</v>
+        <v>20370316.76803232</v>
       </c>
       <c r="M16" t="n">
-        <v>5710306.662091866</v>
+        <v>22926961.20860695</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>ИПР Уральская Сталь</t>
+          <t>ОПП Краснодар</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>11903001.30640768</v>
+        <v>5745327.906300801</v>
       </c>
       <c r="C17" t="n">
-        <v>9763415.151911769</v>
+        <v>7862980.032768673</v>
       </c>
       <c r="D17" t="n">
-        <v>14198321.32285327</v>
+        <v>7751822.043116884</v>
       </c>
       <c r="E17" t="n">
-        <v>11272286.34158714</v>
+        <v>9099451.646697966</v>
       </c>
       <c r="F17" t="n">
-        <v>14869955.94896986</v>
+        <v>8179150.588973292</v>
       </c>
       <c r="G17" t="n">
-        <v>13443038.28702158</v>
+        <v>5779776.073014582</v>
       </c>
       <c r="H17" t="n">
-        <v>16183887.23737675</v>
+        <v>9778445.097435195</v>
       </c>
       <c r="I17" t="n">
-        <v>21036747.52780413</v>
+        <v>6257736.745272899</v>
       </c>
       <c r="J17" t="n">
-        <v>25265963.02097807</v>
+        <v>6587315.223963437</v>
       </c>
       <c r="K17" t="n">
-        <v>24047015.05382033</v>
+        <v>6704661.577079335</v>
       </c>
       <c r="L17" t="n">
-        <v>34855943.35790699</v>
+        <v>6594394.86518438</v>
       </c>
       <c r="M17" t="n">
-        <v>28069546.44036801</v>
+        <v>7925652.913727322</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>ИПР Воркута</t>
+          <t>ОПП Красноярск</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-54289.52266280982</v>
+        <v>2834805.58694013</v>
       </c>
       <c r="C18" t="n">
-        <v>-634440.053488424</v>
+        <v>4254808.066703174</v>
       </c>
       <c r="D18" t="n">
-        <v>543107.0122424858</v>
+        <v>3304754.82304375</v>
       </c>
       <c r="E18" t="n">
-        <v>477934.1684830161</v>
+        <v>3381024.959752778</v>
       </c>
       <c r="F18" t="n">
-        <v>996741.5404139028</v>
+        <v>2699994.273891471</v>
       </c>
       <c r="G18" t="n">
-        <v>7235110.093183625</v>
+        <v>2418773.911209266</v>
       </c>
       <c r="H18" t="n">
-        <v>-1199857.597329009</v>
+        <v>3347302.05625627</v>
       </c>
       <c r="I18" t="n">
-        <v>1029221.063286624</v>
+        <v>2194768.671474635</v>
       </c>
       <c r="J18" t="n">
-        <v>733093.7084090323</v>
+        <v>3545271.022872987</v>
       </c>
       <c r="K18" t="n">
-        <v>-179781.7321820888</v>
+        <v>4860359.16965675</v>
       </c>
       <c r="L18" t="n">
-        <v>-416299.221970866</v>
+        <v>2735178.122071139</v>
       </c>
       <c r="M18" t="n">
-        <v>67400.29530956055</v>
+        <v>3528439.884466571</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>ИПР Колпино СС</t>
+          <t>ОПП МСК Авто ( Юг)</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-211027.339838283</v>
+        <v>6872534.699262641</v>
       </c>
       <c r="C19" t="n">
-        <v>-254648.9405739922</v>
+        <v>2859475.897491545</v>
       </c>
       <c r="D19" t="n">
-        <v>-403688.2613372094</v>
+        <v>4781427.116525894</v>
       </c>
       <c r="E19" t="n">
-        <v>-290921.4899035833</v>
+        <v>3477120.7455083</v>
       </c>
       <c r="F19" t="n">
-        <v>-279218.5811718102</v>
+        <v>4846632.977996269</v>
       </c>
       <c r="G19" t="n">
-        <v>-271975.8835498946</v>
+        <v>3645589.494597901</v>
       </c>
       <c r="H19" t="n">
-        <v>-357040.259082742</v>
+        <v>5374227.127352601</v>
       </c>
       <c r="I19" t="n">
-        <v>-291607.1804935624</v>
+        <v>7262766.843761526</v>
       </c>
       <c r="J19" t="n">
-        <v>-358105.6744322324</v>
+        <v>3503146.921487951</v>
       </c>
       <c r="K19" t="n">
-        <v>-379805.350217658</v>
+        <v>2351569.926600863</v>
       </c>
       <c r="L19" t="n">
-        <v>-385020.8983288232</v>
+        <v>1719610.521131363</v>
       </c>
       <c r="M19" t="n">
-        <v>-394870.5564438057</v>
+        <v>5801775.487007873</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>ИПР Костомукша СС</t>
+          <t>ОПП МСК Пром (Север)</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-118593.4044215614</v>
+        <v>-362358.0249507625</v>
       </c>
       <c r="C20" t="n">
-        <v>430384.8814818203</v>
+        <v>850130.1721036127</v>
       </c>
       <c r="D20" t="n">
-        <v>47694.73374618636</v>
+        <v>2374840.343015029</v>
       </c>
       <c r="E20" t="n">
-        <v>110287.1081202938</v>
+        <v>1473113.11835129</v>
       </c>
       <c r="F20" t="n">
-        <v>15815.20034209639</v>
+        <v>-403420.8776264847</v>
       </c>
       <c r="G20" t="n">
-        <v>652846.1623188611</v>
+        <v>-912358.1882411577</v>
       </c>
       <c r="H20" t="n">
-        <v>-430362.9426262788</v>
+        <v>952148.0842984878</v>
       </c>
       <c r="I20" t="n">
-        <v>1907963.148314202</v>
+        <v>3173536.756840732</v>
       </c>
       <c r="J20" t="n">
-        <v>-89603.1213724222</v>
+        <v>-3235636.072551858</v>
       </c>
       <c r="K20" t="n">
-        <v>470664.3800162168</v>
+        <v>-2632492.389305249</v>
       </c>
       <c r="L20" t="n">
-        <v>832197.2553609818</v>
+        <v>-3583937.292741972</v>
       </c>
       <c r="M20" t="n">
-        <v>433437.6282684547</v>
+        <v>-4758649.483479986</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>ИПР Олкон</t>
+          <t>ОПП Мурманск</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>2864993.958142632</v>
+        <v>3703376.396001546</v>
       </c>
       <c r="C21" t="n">
-        <v>2221903.829581208</v>
+        <v>4221966.020086689</v>
       </c>
       <c r="D21" t="n">
-        <v>2044482.472045887</v>
+        <v>5664898.212040053</v>
       </c>
       <c r="E21" t="n">
-        <v>3152433.623004983</v>
+        <v>6219419.461152568</v>
       </c>
       <c r="F21" t="n">
-        <v>2741709.052533244</v>
+        <v>5800201.207229745</v>
       </c>
       <c r="G21" t="n">
-        <v>3025956.697659591</v>
+        <v>5605762.192736097</v>
       </c>
       <c r="H21" t="n">
-        <v>2846970.155458543</v>
+        <v>4880485.372559462</v>
       </c>
       <c r="I21" t="n">
-        <v>5336488.657644088</v>
+        <v>6175038.549367238</v>
       </c>
       <c r="J21" t="n">
-        <v>3801969.210417474</v>
+        <v>7004109.709417525</v>
       </c>
       <c r="K21" t="n">
-        <v>5262091.955401991</v>
+        <v>6750700.352377865</v>
       </c>
       <c r="L21" t="n">
-        <v>7191858.025802689</v>
+        <v>7900903.987014062</v>
       </c>
       <c r="M21" t="n">
-        <v>4621740.9533804</v>
+        <v>7879688.621811903</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>ИПР Свеза</t>
+          <t>ОПП Нижний Новгород</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>122171.9003734402</v>
+        <v>11531898.51091977</v>
       </c>
       <c r="C22" t="n">
-        <v>30791.67632122082</v>
+        <v>14067924.71306003</v>
       </c>
       <c r="D22" t="n">
-        <v>92249.77152614039</v>
+        <v>15068553.77105475</v>
       </c>
       <c r="E22" t="n">
-        <v>535239.7962648908</v>
+        <v>14577177.14186414</v>
       </c>
       <c r="F22" t="n">
-        <v>4262859.297124048</v>
+        <v>14767122.45265009</v>
       </c>
       <c r="G22" t="n">
-        <v>6423837.496031404</v>
+        <v>12213686.00914622</v>
       </c>
       <c r="H22" t="n">
-        <v>6024826.901707973</v>
+        <v>10384644.07698767</v>
       </c>
       <c r="I22" t="n">
-        <v>3760679.269731751</v>
+        <v>14315751.63334509</v>
       </c>
       <c r="J22" t="n">
-        <v>6611038.895865332</v>
+        <v>16447790.0420417</v>
       </c>
       <c r="K22" t="n">
-        <v>5399011.957150834</v>
+        <v>15293374.98837875</v>
       </c>
       <c r="L22" t="n">
-        <v>3441971.541466456</v>
+        <v>20027733.22899565</v>
       </c>
       <c r="M22" t="n">
-        <v>3024211.350960448</v>
+        <v>16275921.2166957</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>ИПР Сегежа</t>
+          <t>ОПП НКЗ</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-56647.43834572833</v>
+        <v>11058791.31049619</v>
       </c>
       <c r="C23" t="n">
-        <v>-18215.2297693182</v>
+        <v>9241350.573879022</v>
       </c>
       <c r="D23" t="n">
-        <v>-26396.88136359293</v>
+        <v>11778427.06688182</v>
       </c>
       <c r="E23" t="n">
-        <v>-6820.611414234601</v>
+        <v>11874593.52697639</v>
       </c>
       <c r="F23" t="n">
-        <v>24223.10706405072</v>
+        <v>10638263.6421007</v>
       </c>
       <c r="G23" t="n">
-        <v>1281094.342514458</v>
+        <v>5902180.087325513</v>
       </c>
       <c r="H23" t="n">
-        <v>7019.287888429128</v>
+        <v>13122788.31053509</v>
       </c>
       <c r="I23" t="n">
-        <v>708355.7179196454</v>
+        <v>12593958.68710956</v>
       </c>
       <c r="J23" t="n">
-        <v>489995.0189225557</v>
+        <v>13785947.99838422</v>
       </c>
       <c r="K23" t="n">
-        <v>114715.5144816569</v>
+        <v>14393846.46631671</v>
       </c>
       <c r="L23" t="n">
-        <v>316702.8359483568</v>
+        <v>12963214.43384236</v>
       </c>
       <c r="M23" t="n">
-        <v>42614.89038483938</v>
+        <v>13530034.62160891</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>ИПР Череповец СС</t>
+          <t>ОПП СПб Пром</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>13203736.88839659</v>
+        <v>7188442.424726659</v>
       </c>
       <c r="C24" t="n">
-        <v>11319604.63764085</v>
+        <v>8688963.120591085</v>
       </c>
       <c r="D24" t="n">
-        <v>13007963.69966495</v>
+        <v>9086753.569301</v>
       </c>
       <c r="E24" t="n">
-        <v>12024310.63536916</v>
+        <v>14301409.4814177</v>
       </c>
       <c r="F24" t="n">
-        <v>11983107.42833683</v>
+        <v>19366641.39102625</v>
       </c>
       <c r="G24" t="n">
-        <v>17426185.55351767</v>
+        <v>8992481.840739381</v>
       </c>
       <c r="H24" t="n">
-        <v>12440407.77650007</v>
+        <v>12679859.55289799</v>
       </c>
       <c r="I24" t="n">
-        <v>17942561.5600403</v>
+        <v>13932450.87664877</v>
       </c>
       <c r="J24" t="n">
-        <v>21323017.51593825</v>
+        <v>14228185.29161236</v>
       </c>
       <c r="K24" t="n">
-        <v>22429216.35528773</v>
+        <v>11624202.41743305</v>
       </c>
       <c r="L24" t="n">
-        <v>22196304.65811121</v>
+        <v>12859617.86098715</v>
       </c>
       <c r="M24" t="n">
-        <v>24309283.98577893</v>
+        <v>16640869.75385327</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>ИПР Яковлевский СС</t>
+          <t>ОПП СПб Север Авто</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1345696.736300545</v>
+        <v>4789090.550114516</v>
       </c>
       <c r="C25" t="n">
-        <v>1112661.341775882</v>
+        <v>4019347.772572407</v>
       </c>
       <c r="D25" t="n">
-        <v>294876.0881355617</v>
+        <v>5365443.299930471</v>
       </c>
       <c r="E25" t="n">
-        <v>2248526.678795592</v>
+        <v>5025045.850049392</v>
       </c>
       <c r="F25" t="n">
-        <v>1539955.878519894</v>
+        <v>8718462.370515736</v>
       </c>
       <c r="G25" t="n">
-        <v>-325951.0157170333</v>
+        <v>2673282.778073624</v>
       </c>
       <c r="H25" t="n">
-        <v>-1537141.425558207</v>
+        <v>5578972.773310776</v>
       </c>
       <c r="I25" t="n">
-        <v>1125462.261687904</v>
+        <v>5117401.864654208</v>
       </c>
       <c r="J25" t="n">
-        <v>-202160.9935655061</v>
+        <v>6190831.52241253</v>
       </c>
       <c r="K25" t="n">
-        <v>-777809.937870346</v>
+        <v>4528258.941342858</v>
       </c>
       <c r="L25" t="n">
-        <v>-492311.6203491488</v>
+        <v>5527512.08710195</v>
       </c>
       <c r="M25" t="n">
-        <v>-2467688.023759548</v>
+        <v>4847373.351256987</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>ИПР Нижний Тагил</t>
+          <t>ОПП СПб Юг Авто</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>13173395.89199511</v>
+        <v>10178055.5850539</v>
       </c>
       <c r="C26" t="n">
-        <v>14091724.19275238</v>
+        <v>13292587.78066419</v>
       </c>
       <c r="D26" t="n">
-        <v>13511237.88105728</v>
+        <v>14361921.06781127</v>
       </c>
       <c r="E26" t="n">
-        <v>13864233.78072158</v>
+        <v>14664689.47555089</v>
       </c>
       <c r="F26" t="n">
-        <v>13197587.57766837</v>
+        <v>14927613.76810244</v>
       </c>
       <c r="G26" t="n">
-        <v>18340144.90745688</v>
+        <v>14192815.87324294</v>
       </c>
       <c r="H26" t="n">
-        <v>14972978.23012383</v>
+        <v>22709921.26224086</v>
       </c>
       <c r="I26" t="n">
-        <v>15744680.03181889</v>
+        <v>17795627.43625122</v>
       </c>
       <c r="J26" t="n">
-        <v>19171246.22423403</v>
+        <v>14454940.36430795</v>
       </c>
       <c r="K26" t="n">
-        <v>20543889.19223249</v>
+        <v>18098963.1263457</v>
       </c>
       <c r="L26" t="n">
-        <v>22331286.1568771</v>
+        <v>16267939.34798986</v>
       </c>
       <c r="M26" t="n">
-        <v>23747721.60177827</v>
+        <v>16579670.73619496</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>ИПР НКЗ</t>
+          <t>ОПП Сургут</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>14051463.1476656</v>
+        <v>1334920.588774832</v>
       </c>
       <c r="C27" t="n">
-        <v>18935741.38805111</v>
+        <v>2650995.455580792</v>
       </c>
       <c r="D27" t="n">
-        <v>15897177.26691537</v>
+        <v>812577.549620419</v>
       </c>
       <c r="E27" t="n">
-        <v>15515191.78275098</v>
+        <v>1268494.267995025</v>
       </c>
       <c r="F27" t="n">
-        <v>16590615.70228888</v>
+        <v>3294281.25816031</v>
       </c>
       <c r="G27" t="n">
-        <v>26802317.3669469</v>
+        <v>-493608.590870847</v>
       </c>
       <c r="H27" t="n">
-        <v>8094164.574398443</v>
+        <v>96584.50504811248</v>
       </c>
       <c r="I27" t="n">
-        <v>247922.4266052861</v>
+        <v>-739383.0169212869</v>
       </c>
       <c r="J27" t="n">
-        <v>6605403.026852658</v>
+        <v>-3612116.140287356</v>
       </c>
       <c r="K27" t="n">
-        <v>7066736.941361701</v>
+        <v>-3858146.321133733</v>
       </c>
       <c r="L27" t="n">
-        <v>13276938.24464636</v>
+        <v>-5869525.187734468</v>
       </c>
       <c r="M27" t="n">
-        <v>13577368.80805011</v>
+        <v>-6620255.449849926</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>ИПР Русал</t>
+          <t>ОПП Хабаровск</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>13698990.25116313</v>
+        <v>11049378.82415123</v>
       </c>
       <c r="C28" t="n">
-        <v>14245906.37169835</v>
+        <v>3970045.851418085</v>
       </c>
       <c r="D28" t="n">
-        <v>15177841.52851443</v>
+        <v>2449256.711385711</v>
       </c>
       <c r="E28" t="n">
-        <v>16416571.62199572</v>
+        <v>2871467.658044286</v>
       </c>
       <c r="F28" t="n">
-        <v>17224522.37665815</v>
+        <v>6490569.940894604</v>
       </c>
       <c r="G28" t="n">
-        <v>18888572.99494411</v>
+        <v>3885368.933717205</v>
       </c>
       <c r="H28" t="n">
-        <v>18781389.55642279</v>
+        <v>7293714.188138193</v>
       </c>
       <c r="I28" t="n">
-        <v>20661420.116755</v>
+        <v>7058632.589687197</v>
       </c>
       <c r="J28" t="n">
-        <v>24679023.91050472</v>
+        <v>2991098.024729208</v>
       </c>
       <c r="K28" t="n">
-        <v>28291397.42968975</v>
+        <v>-110975.208110746</v>
       </c>
       <c r="L28" t="n">
-        <v>30002787.00144315</v>
+        <v>1489423.133109244</v>
       </c>
       <c r="M28" t="n">
-        <v>31834959.50797088</v>
+        <v>3054293.572075022</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>ИПР УГМК</t>
+          <t>Магазин Владивосток</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>24410372.46039326</v>
+        <v>2402193.131640639</v>
       </c>
       <c r="C29" t="n">
-        <v>26401316.234566</v>
+        <v>2567136.379044996</v>
       </c>
       <c r="D29" t="n">
-        <v>37018298.67289575</v>
+        <v>2487427.455684612</v>
       </c>
       <c r="E29" t="n">
-        <v>48964834.27806521</v>
+        <v>2891654.575106955</v>
       </c>
       <c r="F29" t="n">
-        <v>50623583.93576907</v>
+        <v>3212708.794515931</v>
       </c>
       <c r="G29" t="n">
-        <v>37277284.8146189</v>
+        <v>3042392.355021134</v>
       </c>
       <c r="H29" t="n">
-        <v>36764426.41975169</v>
+        <v>3364007.363244713</v>
       </c>
       <c r="I29" t="n">
-        <v>45458110.60567678</v>
+        <v>4127543.818438916</v>
       </c>
       <c r="J29" t="n">
-        <v>45463113.21538138</v>
+        <v>4683904.446607343</v>
       </c>
       <c r="K29" t="n">
-        <v>49044314.10550541</v>
+        <v>4760743.320668213</v>
       </c>
       <c r="L29" t="n">
-        <v>45584042.24355385</v>
+        <v>5560545.150812121</v>
       </c>
       <c r="M29" t="n">
-        <v>59819889.94297162</v>
+        <v>5573671.050234717</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>Менеджер ОРСТП 1</t>
+          <t>Магазин Воронеж</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>42497246.25736986</v>
+        <v>633139.0110259887</v>
       </c>
       <c r="C30" t="n">
-        <v>38969713.33068521</v>
+        <v>767254.9845091654</v>
       </c>
       <c r="D30" t="n">
-        <v>46255608.45438203</v>
+        <v>592606.6234412274</v>
       </c>
       <c r="E30" t="n">
-        <v>54075252.73719386</v>
+        <v>569986.0786366934</v>
       </c>
       <c r="F30" t="n">
-        <v>59154641.2170862</v>
+        <v>1184618.999486932</v>
       </c>
       <c r="G30" t="n">
-        <v>52946092.40529594</v>
+        <v>591136.8932078453</v>
       </c>
       <c r="H30" t="n">
-        <v>54401828.6408305</v>
+        <v>576434.306590604</v>
       </c>
       <c r="I30" t="n">
-        <v>60430426.67935363</v>
+        <v>294993.7498657814</v>
       </c>
       <c r="J30" t="n">
-        <v>57078607.12864168</v>
+        <v>900877.5852627608</v>
       </c>
       <c r="K30" t="n">
-        <v>71808599.44279756</v>
+        <v>328080.2905518718</v>
       </c>
       <c r="L30" t="n">
-        <v>73383975.70353955</v>
+        <v>27208.99914362875</v>
       </c>
       <c r="M30" t="n">
-        <v>79692315.38026908</v>
+        <v>504446.8885304432</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>Менеджер ОРСТП 2</t>
+          <t>Магазин Казань / ПВЗ Казань</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>35026327.20716358</v>
+        <v>338416.7631552807</v>
       </c>
       <c r="C31" t="n">
-        <v>35862669.94728941</v>
+        <v>665414.7118143557</v>
       </c>
       <c r="D31" t="n">
-        <v>47335023.01785637</v>
+        <v>774953.9354364292</v>
       </c>
       <c r="E31" t="n">
-        <v>50824626.13178964</v>
+        <v>1012346.397900714</v>
       </c>
       <c r="F31" t="n">
-        <v>52557815.41963837</v>
+        <v>770101.8467285105</v>
       </c>
       <c r="G31" t="n">
-        <v>42992713.29538176</v>
+        <v>341703.2235299158</v>
       </c>
       <c r="H31" t="n">
-        <v>54078472.56928909</v>
+        <v>382692.9794621891</v>
       </c>
       <c r="I31" t="n">
-        <v>52047015.09383099</v>
+        <v>855825.943737425</v>
       </c>
       <c r="J31" t="n">
-        <v>42705312.52152081</v>
+        <v>530845.9814559584</v>
       </c>
       <c r="K31" t="n">
-        <v>54220449.17807218</v>
+        <v>298531.3671813279</v>
       </c>
       <c r="L31" t="n">
-        <v>60850770.90345514</v>
+        <v>592821.7766135505</v>
       </c>
       <c r="M31" t="n">
-        <v>64745574.8315043</v>
+        <v>290360.5615133556</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>ОПП Владивосток</t>
+          <t>Магазин Кемерово</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>830829.3712270923</v>
+        <v>1501118.142658525</v>
       </c>
       <c r="C32" t="n">
-        <v>1053215.027188391</v>
+        <v>2494279.124322636</v>
       </c>
       <c r="D32" t="n">
-        <v>1259730.252023584</v>
+        <v>2112549.978810767</v>
       </c>
       <c r="E32" t="n">
-        <v>1467113.800378655</v>
+        <v>1723375.50603928</v>
       </c>
       <c r="F32" t="n">
-        <v>1674449.989672404</v>
+        <v>1954230.832911797</v>
       </c>
       <c r="G32" t="n">
-        <v>1881788.926929664</v>
+        <v>1238362.906235813</v>
       </c>
       <c r="H32" t="n">
-        <v>2089127.807257635</v>
+        <v>1341660.385090927</v>
       </c>
       <c r="I32" t="n">
-        <v>2799244.349553729</v>
+        <v>1722095.098418089</v>
       </c>
       <c r="J32" t="n">
-        <v>3312990.223322655</v>
+        <v>2003561.388031881</v>
       </c>
       <c r="K32" t="n">
-        <v>3460820.287118639</v>
+        <v>1517571.792371591</v>
       </c>
       <c r="L32" t="n">
-        <v>3474425.987514495</v>
+        <v>1628122.684825388</v>
       </c>
       <c r="M32" t="n">
-        <v>5038976.192072912</v>
+        <v>1831136.345028185</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>ОПП Воронеж</t>
+          <t>Магазин Краснодар</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3552412.046444688</v>
+        <v>2193195.346259617</v>
       </c>
       <c r="C33" t="n">
-        <v>5213952.752172118</v>
+        <v>1423404.265848347</v>
       </c>
       <c r="D33" t="n">
-        <v>3774297.68644697</v>
+        <v>1574924.26359468</v>
       </c>
       <c r="E33" t="n">
-        <v>3798601.554309514</v>
+        <v>793910.5242921053</v>
       </c>
       <c r="F33" t="n">
-        <v>5302161.253990361</v>
+        <v>742364.3809801628</v>
       </c>
       <c r="G33" t="n">
-        <v>4294140.709524957</v>
+        <v>25698.63328514865</v>
       </c>
       <c r="H33" t="n">
-        <v>4089122.686563908</v>
+        <v>73597.65447044093</v>
       </c>
       <c r="I33" t="n">
-        <v>4053177.40498244</v>
+        <v>276297.7746575195</v>
       </c>
       <c r="J33" t="n">
-        <v>5552292.820891723</v>
+        <v>5229.585726841877</v>
       </c>
       <c r="K33" t="n">
-        <v>5562537.77033831</v>
+        <v>-609399.6812314116</v>
       </c>
       <c r="L33" t="n">
-        <v>3231684.55085101</v>
+        <v>-835838.8047447496</v>
       </c>
       <c r="M33" t="n">
-        <v>3921361.631486733</v>
+        <v>-761020.7499491014</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>ОПП Казань+Чувашия</t>
+          <t>Магазин Красноярск 1</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>8880674.80259411</v>
+        <v>2961278.122162254</v>
       </c>
       <c r="C34" t="n">
-        <v>5516813.917651141</v>
+        <v>1645323.417685502</v>
       </c>
       <c r="D34" t="n">
-        <v>15856856.33073995</v>
+        <v>3029934.771666502</v>
       </c>
       <c r="E34" t="n">
-        <v>14104452.55032303</v>
+        <v>2389618.605656692</v>
       </c>
       <c r="F34" t="n">
-        <v>20215089.80743055</v>
+        <v>3324710.752657169</v>
       </c>
       <c r="G34" t="n">
-        <v>17720142.85975861</v>
+        <v>2801807.511640833</v>
       </c>
       <c r="H34" t="n">
-        <v>20349474.89755574</v>
+        <v>1737922.636419492</v>
       </c>
       <c r="I34" t="n">
-        <v>12122291.9122934</v>
+        <v>2741736.518529697</v>
       </c>
       <c r="J34" t="n">
-        <v>14916875.6595003</v>
+        <v>1988937.712774582</v>
       </c>
       <c r="K34" t="n">
-        <v>17371799.42553097</v>
+        <v>3464298.875275263</v>
       </c>
       <c r="L34" t="n">
-        <v>15018144.76780194</v>
+        <v>3574182.529747086</v>
       </c>
       <c r="M34" t="n">
-        <v>17164919.18069382</v>
+        <v>2862926.367890117</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>ОПП Краснодар</t>
+          <t>Магазин МСК 3</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>4171723.560656213</v>
+        <v>1598519.514851884</v>
       </c>
       <c r="C35" t="n">
-        <v>5176428.17634515</v>
+        <v>2398896.284369493</v>
       </c>
       <c r="D35" t="n">
-        <v>7316555.864467423</v>
+        <v>3126959.230627926</v>
       </c>
       <c r="E35" t="n">
-        <v>7155908.555009518</v>
+        <v>2710746.09296746</v>
       </c>
       <c r="F35" t="n">
-        <v>8447093.86937301</v>
+        <v>2501282.843795704</v>
       </c>
       <c r="G35" t="n">
-        <v>7518589.88737275</v>
+        <v>2154233.643552712</v>
       </c>
       <c r="H35" t="n">
-        <v>5042001.607897523</v>
+        <v>3037758.049110888</v>
       </c>
       <c r="I35" t="n">
-        <v>8938455.767386705</v>
+        <v>4050584.578961209</v>
       </c>
       <c r="J35" t="n">
-        <v>5265691.568015341</v>
+        <v>3088877.020490291</v>
       </c>
       <c r="K35" t="n">
-        <v>5424628.775647324</v>
+        <v>2891968.23301291</v>
       </c>
       <c r="L35" t="n">
-        <v>5503750.285561683</v>
+        <v>2882363.431034626</v>
       </c>
       <c r="M35" t="n">
-        <v>5443348.136921259</v>
+        <v>4292062.486849248</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>ОПП Красноярск</t>
+          <t>Магазин МСК Балашиха</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>-367937.7542454274</v>
+        <v>1086544.305328808</v>
       </c>
       <c r="C36" t="n">
-        <v>691997.9816065279</v>
+        <v>562069.3554070867</v>
       </c>
       <c r="D36" t="n">
-        <v>1827408.549373673</v>
+        <v>1269502.356035302</v>
       </c>
       <c r="E36" t="n">
-        <v>649404.9165818824</v>
+        <v>377417.9679119652</v>
       </c>
       <c r="F36" t="n">
-        <v>473816.3684742646</v>
+        <v>322956.2562112503</v>
       </c>
       <c r="G36" t="n">
-        <v>-252673.6755574574</v>
+        <v>593050.4322542842</v>
       </c>
       <c r="H36" t="n">
-        <v>-866236.4214822259</v>
+        <v>1334224.393036996</v>
       </c>
       <c r="I36" t="n">
-        <v>4271.126589537947</v>
+        <v>748071.1693753337</v>
       </c>
       <c r="J36" t="n">
-        <v>-1437973.897524206</v>
+        <v>1056900.154279693</v>
       </c>
       <c r="K36" t="n">
-        <v>-441740.2065829132</v>
+        <v>611802.4860852365</v>
       </c>
       <c r="L36" t="n">
-        <v>745547.0941783707</v>
+        <v>750567.8554728988</v>
       </c>
       <c r="M36" t="n">
-        <v>-1628464.140517983</v>
+        <v>423769.6259035193</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>ОПП МСК Авто ( Юг)</t>
+          <t>Магазин МСК Кунцево</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>11095368.46077111</v>
+        <v>5363088.042374636</v>
       </c>
       <c r="C37" t="n">
-        <v>9744495.605440496</v>
+        <v>4011488.237617888</v>
       </c>
       <c r="D37" t="n">
-        <v>6432051.231135813</v>
+        <v>5595346.01782281</v>
       </c>
       <c r="E37" t="n">
-        <v>8884638.015779711</v>
+        <v>4495896.838163563</v>
       </c>
       <c r="F37" t="n">
-        <v>6813232.952923344</v>
+        <v>4130157.743566471</v>
       </c>
       <c r="G37" t="n">
-        <v>7898325.090276613</v>
+        <v>4464015.416212621</v>
       </c>
       <c r="H37" t="n">
-        <v>6783659.215446413</v>
+        <v>4270457.044616703</v>
       </c>
       <c r="I37" t="n">
-        <v>8893574.504144024</v>
+        <v>5175327.457493894</v>
       </c>
       <c r="J37" t="n">
-        <v>11093288.4150426</v>
+        <v>5116748.987068387</v>
       </c>
       <c r="K37" t="n">
-        <v>7266421.682492144</v>
+        <v>4724849.70597071</v>
       </c>
       <c r="L37" t="n">
-        <v>7208302.449858489</v>
+        <v>3773951.724234899</v>
       </c>
       <c r="M37" t="n">
-        <v>7458310.342758943</v>
+        <v>5542125.229298056</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>ОПП МСК Пром (Север)</t>
+          <t>Магазин Мурманск</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1264045.601709131</v>
+        <v>3167980.090294072</v>
       </c>
       <c r="C38" t="n">
-        <v>-576065.7251746594</v>
+        <v>4662291.691902328</v>
       </c>
       <c r="D38" t="n">
-        <v>645793.465228321</v>
+        <v>3992753.635536553</v>
       </c>
       <c r="E38" t="n">
-        <v>2076012.903458081</v>
+        <v>3222100.812949568</v>
       </c>
       <c r="F38" t="n">
-        <v>1144210.904163172</v>
+        <v>4394932.558677409</v>
       </c>
       <c r="G38" t="n">
-        <v>-774193.1634064175</v>
+        <v>2856705.143550293</v>
       </c>
       <c r="H38" t="n">
-        <v>-1268215.665102669</v>
+        <v>4220540.728322214</v>
       </c>
       <c r="I38" t="n">
-        <v>531989.3729034541</v>
+        <v>3381258.207777959</v>
       </c>
       <c r="J38" t="n">
-        <v>2643007.756192416</v>
+        <v>3969603.669854786</v>
       </c>
       <c r="K38" t="n">
-        <v>-3726421.421855538</v>
+        <v>4805841.870757921</v>
       </c>
       <c r="L38" t="n">
-        <v>-3146047.620492336</v>
+        <v>3984414.01798849</v>
       </c>
       <c r="M38" t="n">
-        <v>-4108494.558239174</v>
+        <v>4619799.116995621</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>ОПП Мурманск</t>
+          <t>Магазин Нижневартовск</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>4780432.303589879</v>
+        <v>4511038.279446037</v>
       </c>
       <c r="C39" t="n">
-        <v>4257562.075023577</v>
+        <v>4982120.029610161</v>
       </c>
       <c r="D39" t="n">
-        <v>5529558.256394139</v>
+        <v>5950078.673276562</v>
       </c>
       <c r="E39" t="n">
-        <v>6736557.590153881</v>
+        <v>3659738.11744974</v>
       </c>
       <c r="F39" t="n">
-        <v>7645585.331369515</v>
+        <v>4132084.362942165</v>
       </c>
       <c r="G39" t="n">
-        <v>7334987.575358309</v>
+        <v>3186442.331764358</v>
       </c>
       <c r="H39" t="n">
-        <v>7390786.668937642</v>
+        <v>3237977.08982823</v>
       </c>
       <c r="I39" t="n">
-        <v>6777207.901002597</v>
+        <v>4187095.012694146</v>
       </c>
       <c r="J39" t="n">
-        <v>8306188.538973971</v>
+        <v>4367897.516489746</v>
       </c>
       <c r="K39" t="n">
-        <v>9284942.967960536</v>
+        <v>4239256.432564245</v>
       </c>
       <c r="L39" t="n">
-        <v>9232854.789854292</v>
+        <v>3577181.804794099</v>
       </c>
       <c r="M39" t="n">
-        <v>10516087.22827015</v>
+        <v>3856651.539135829</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>ОПП Нижний Новгород</t>
+          <t>Магазин НКЗ</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>12457826.63100577</v>
+        <v>5150700.318390497</v>
       </c>
       <c r="C40" t="n">
-        <v>12537313.29712638</v>
+        <v>5232360.542950535</v>
       </c>
       <c r="D40" t="n">
-        <v>16287120.83342812</v>
+        <v>5369125.388713745</v>
       </c>
       <c r="E40" t="n">
-        <v>16920428.79183655</v>
+        <v>5791232.15904509</v>
       </c>
       <c r="F40" t="n">
-        <v>16971869.14112839</v>
+        <v>5553086.549611901</v>
       </c>
       <c r="G40" t="n">
-        <v>17187203.64326639</v>
+        <v>3971827.368231783</v>
       </c>
       <c r="H40" t="n">
-        <v>15029274.02924633</v>
+        <v>4449742.541579746</v>
       </c>
       <c r="I40" t="n">
-        <v>13307915.46015924</v>
+        <v>6454309.058276274</v>
       </c>
       <c r="J40" t="n">
-        <v>17619354.27407346</v>
+        <v>5339789.373902028</v>
       </c>
       <c r="K40" t="n">
-        <v>19904132.46375547</v>
+        <v>5519157.51287331</v>
       </c>
       <c r="L40" t="n">
-        <v>19038406.75753168</v>
+        <v>5946403.089336764</v>
       </c>
       <c r="M40" t="n">
-        <v>24019258.15159664</v>
+        <v>5320711.010325331</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>ОПП НКЗ</t>
+          <t>Магазин НН Бурнаковский</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>5267702.950752494</v>
+        <v>2758606.541431176</v>
       </c>
       <c r="C41" t="n">
-        <v>9130645.914458647</v>
+        <v>3224804.673600209</v>
       </c>
       <c r="D41" t="n">
-        <v>6617426.191597458</v>
+        <v>3315289.322623972</v>
       </c>
       <c r="E41" t="n">
-        <v>8270064.187961651</v>
+        <v>3167361.7302381</v>
       </c>
       <c r="F41" t="n">
-        <v>7684027.231731558</v>
+        <v>4620827.953253511</v>
       </c>
       <c r="G41" t="n">
-        <v>6337268.671124302</v>
+        <v>3774198.01670001</v>
       </c>
       <c r="H41" t="n">
-        <v>1377215.660228381</v>
+        <v>2598230.255751682</v>
       </c>
       <c r="I41" t="n">
-        <v>8282670.732560802</v>
+        <v>4032646.952101828</v>
       </c>
       <c r="J41" t="n">
-        <v>7545581.90486467</v>
+        <v>4658830.31462214</v>
       </c>
       <c r="K41" t="n">
-        <v>7902809.338424414</v>
+        <v>3598923.066238268</v>
       </c>
       <c r="L41" t="n">
-        <v>7457324.901443794</v>
+        <v>3670002.254662463</v>
       </c>
       <c r="M41" t="n">
-        <v>6738073.763050344</v>
+        <v>4108798.840663654</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>ОПП СПб Пром</t>
+          <t>Магазин НН Ларина</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>8687390.138048481</v>
+        <v>4594514.168428061</v>
       </c>
       <c r="C42" t="n">
-        <v>7579061.474829424</v>
+        <v>5407036.089492905</v>
       </c>
       <c r="D42" t="n">
-        <v>9250810.748682883</v>
+        <v>4378988.091586079</v>
       </c>
       <c r="E42" t="n">
-        <v>9325265.449640973</v>
+        <v>4695603.054324914</v>
       </c>
       <c r="F42" t="n">
-        <v>13913873.64418268</v>
+        <v>4725911.453375378</v>
       </c>
       <c r="G42" t="n">
-        <v>19678446.61788515</v>
+        <v>3483857.424926321</v>
       </c>
       <c r="H42" t="n">
-        <v>8969355.489726827</v>
+        <v>4183916.305088993</v>
       </c>
       <c r="I42" t="n">
-        <v>12498105.98384203</v>
+        <v>4161811.834215276</v>
       </c>
       <c r="J42" t="n">
-        <v>13786335.71211309</v>
+        <v>4777244.171366496</v>
       </c>
       <c r="K42" t="n">
-        <v>13833804.07379145</v>
+        <v>5336230.870803237</v>
       </c>
       <c r="L42" t="n">
-        <v>11413871.0296313</v>
+        <v>5135951.932345048</v>
       </c>
       <c r="M42" t="n">
-        <v>12601844.87624365</v>
+        <v>4524930.007604639</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>ОПП СПб Север Авто</t>
+          <t>Магазин СПб Богатырский</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>5038026.930924059</v>
+        <v>2302102.431638815</v>
       </c>
       <c r="C43" t="n">
-        <v>5422979.793951787</v>
+        <v>1592379.25300778</v>
       </c>
       <c r="D43" t="n">
-        <v>4341084.879825771</v>
+        <v>2596624.267252846</v>
       </c>
       <c r="E43" t="n">
-        <v>6007370.878189054</v>
+        <v>2622192.902486239</v>
       </c>
       <c r="F43" t="n">
-        <v>5924770.485186666</v>
+        <v>3796368.711408617</v>
       </c>
       <c r="G43" t="n">
-        <v>9555442.750360645</v>
+        <v>1537498.217306962</v>
       </c>
       <c r="H43" t="n">
-        <v>3337430.319428928</v>
+        <v>1626523.441334027</v>
       </c>
       <c r="I43" t="n">
-        <v>6304203.144043201</v>
+        <v>3171049.907704487</v>
       </c>
       <c r="J43" t="n">
-        <v>5577106.418552746</v>
+        <v>3516432.606759538</v>
       </c>
       <c r="K43" t="n">
-        <v>6803034.693378601</v>
+        <v>3289681.410397015</v>
       </c>
       <c r="L43" t="n">
-        <v>5091178.151684873</v>
+        <v>3175131.211391469</v>
       </c>
       <c r="M43" t="n">
-        <v>6048304.779832959</v>
+        <v>3243442.949917151</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>ОПП СПб Юг Авто</t>
+          <t>Магазин СПб Софийская</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>11048748.50850763</v>
+        <v>2490302.11552799</v>
       </c>
       <c r="C44" t="n">
-        <v>13186055.81961732</v>
+        <v>4426712.255235158</v>
       </c>
       <c r="D44" t="n">
-        <v>15064821.03721731</v>
+        <v>2724817.067962857</v>
       </c>
       <c r="E44" t="n">
-        <v>15226644.59591403</v>
+        <v>4079676.764936372</v>
       </c>
       <c r="F44" t="n">
-        <v>14605722.8105606</v>
+        <v>4508905.18110544</v>
       </c>
       <c r="G44" t="n">
-        <v>15139572.79399528</v>
+        <v>3144930.325205576</v>
       </c>
       <c r="H44" t="n">
-        <v>13165026.45605933</v>
+        <v>2592879.555704842</v>
       </c>
       <c r="I44" t="n">
-        <v>20259761.78711173</v>
+        <v>5491467.367113085</v>
       </c>
       <c r="J44" t="n">
-        <v>16396677.93726218</v>
+        <v>2584143.551821468</v>
       </c>
       <c r="K44" t="n">
-        <v>14288782.37730343</v>
+        <v>2388979.16603412</v>
       </c>
       <c r="L44" t="n">
-        <v>17436100.74621568</v>
+        <v>1982197.564286829</v>
       </c>
       <c r="M44" t="n">
-        <v>14716646.88033076</v>
+        <v>3814372.36936122</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>ОПП Сургут</t>
+          <t>Магазин СПб Энергетиков</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>6302249.588136867</v>
+        <v>3259766.829873063</v>
       </c>
       <c r="C45" t="n">
-        <v>4176142.772186696</v>
+        <v>3832524.280073937</v>
       </c>
       <c r="D45" t="n">
-        <v>7047885.076006566</v>
+        <v>2641016.207084415</v>
       </c>
       <c r="E45" t="n">
-        <v>6218589.398734828</v>
+        <v>3585681.380651924</v>
       </c>
       <c r="F45" t="n">
-        <v>7919420.191856056</v>
+        <v>3574186.9406857</v>
       </c>
       <c r="G45" t="n">
-        <v>11260304.4407518</v>
+        <v>2405469.612549502</v>
       </c>
       <c r="H45" t="n">
-        <v>8508198.440170018</v>
+        <v>2711551.378716066</v>
       </c>
       <c r="I45" t="n">
-        <v>10343884.21496021</v>
+        <v>3311058.76064125</v>
       </c>
       <c r="J45" t="n">
-        <v>10792015.26455555</v>
+        <v>3876169.275339387</v>
       </c>
       <c r="K45" t="n">
-        <v>9027240.932966232</v>
+        <v>3800668.731831195</v>
       </c>
       <c r="L45" t="n">
-        <v>10058136.21552087</v>
+        <v>2931236.066920782</v>
       </c>
       <c r="M45" t="n">
-        <v>9032779.228544177</v>
+        <v>3283247.7149305</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>ОПП Хабаровск</t>
+          <t>Магазин Сургут</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>9126722.711713694</v>
+        <v>1763671.699468153</v>
       </c>
       <c r="C46" t="n">
-        <v>10873518.77906628</v>
+        <v>2196074.681124175</v>
       </c>
       <c r="D46" t="n">
-        <v>4197020.406526458</v>
+        <v>2311979.047969887</v>
       </c>
       <c r="E46" t="n">
-        <v>2726971.117168355</v>
+        <v>1758737.338674678</v>
       </c>
       <c r="F46" t="n">
-        <v>3466324.206958274</v>
+        <v>2377130.224069539</v>
       </c>
       <c r="G46" t="n">
-        <v>7447555.887930783</v>
+        <v>2164916.290764365</v>
       </c>
       <c r="H46" t="n">
-        <v>4039643.889653917</v>
+        <v>2098124.679483271</v>
       </c>
       <c r="I46" t="n">
-        <v>7576197.051114116</v>
+        <v>3841936.457823354</v>
       </c>
       <c r="J46" t="n">
-        <v>7307473.709088002</v>
+        <v>2385495.232912553</v>
       </c>
       <c r="K46" t="n">
-        <v>3877516.723038211</v>
+        <v>2263919.645810931</v>
       </c>
       <c r="L46" t="n">
-        <v>457051.827219367</v>
+        <v>2688710.217944576</v>
       </c>
       <c r="M46" t="n">
-        <v>2331756.586059069</v>
+        <v>2726517.706187371</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>Магазин Владивосток</t>
+          <t>Магазин Сургут 2</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>2272155.965538965</v>
+        <v>1645115.829300336</v>
       </c>
       <c r="C47" t="n">
-        <v>2282669.390016617</v>
+        <v>1638627.630603249</v>
       </c>
       <c r="D47" t="n">
-        <v>2388561.040155094</v>
+        <v>1757084.023606238</v>
       </c>
       <c r="E47" t="n">
-        <v>2305075.246151808</v>
+        <v>1485296.085338234</v>
       </c>
       <c r="F47" t="n">
-        <v>2671488.994040452</v>
+        <v>1478624.578846877</v>
       </c>
       <c r="G47" t="n">
-        <v>2974334.482869414</v>
+        <v>1569147.025817471</v>
       </c>
       <c r="H47" t="n">
-        <v>2780714.84476774</v>
+        <v>1651240.958245032</v>
       </c>
       <c r="I47" t="n">
-        <v>3079151.94437507</v>
+        <v>1915482.515733258</v>
       </c>
       <c r="J47" t="n">
-        <v>3821093.190158424</v>
+        <v>3031272.560840103</v>
       </c>
       <c r="K47" t="n">
-        <v>4356633.486835554</v>
+        <v>3707582.314399218</v>
       </c>
       <c r="L47" t="n">
-        <v>4409623.117701401</v>
+        <v>3076827.793629073</v>
       </c>
       <c r="M47" t="n">
-        <v>5186860.23104784</v>
+        <v>3558885.071998298</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>Магазин Воронеж</t>
+          <t>Магазин Хабаровск Индустриальный</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>711662.7195057595</v>
+        <v>5312987.439372375</v>
       </c>
       <c r="C48" t="n">
-        <v>644928.6187695152</v>
+        <v>6731110.08584013</v>
       </c>
       <c r="D48" t="n">
-        <v>781835.546806636</v>
+        <v>6679668.90140492</v>
       </c>
       <c r="E48" t="n">
-        <v>612373.1146109886</v>
+        <v>6194926.48862738</v>
       </c>
       <c r="F48" t="n">
-        <v>594570.6172326757</v>
+        <v>6972834.039391554</v>
       </c>
       <c r="G48" t="n">
-        <v>1216506.777257022</v>
+        <v>7680577.783476595</v>
       </c>
       <c r="H48" t="n">
-        <v>625380.7118776473</v>
+        <v>7271324.167325293</v>
       </c>
       <c r="I48" t="n">
-        <v>615186.310246136</v>
+        <v>8012746.275981458</v>
       </c>
       <c r="J48" t="n">
-        <v>339027.428595903</v>
+        <v>9298463.581310881</v>
       </c>
       <c r="K48" t="n">
-        <v>949034.7580255107</v>
+        <v>8204490.458634809</v>
       </c>
       <c r="L48" t="n">
-        <v>380362.4356281972</v>
+        <v>8092018.309670661</v>
       </c>
       <c r="M48" t="n">
-        <v>85054.9716265389</v>
+        <v>9329201.848843046</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>Магазин Казань / ПВЗ Казань</t>
+          <t>ПВЗ Инфор</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>804434.8979745738</v>
+        <v>444728.7380451603</v>
       </c>
       <c r="C49" t="n">
-        <v>667852.1674588679</v>
+        <v>817256.4805890198</v>
       </c>
       <c r="D49" t="n">
-        <v>1148483.110638964</v>
+        <v>395792.1998667249</v>
       </c>
       <c r="E49" t="n">
-        <v>1075803.173622859</v>
+        <v>441182.0676877208</v>
       </c>
       <c r="F49" t="n">
-        <v>1388030.597860484</v>
+        <v>566340.6867775561</v>
       </c>
       <c r="G49" t="n">
-        <v>1075067.311927337</v>
+        <v>317439.5049133055</v>
       </c>
       <c r="H49" t="n">
-        <v>826659.564705602</v>
+        <v>570201.1655193042</v>
       </c>
       <c r="I49" t="n">
-        <v>869226.2463915101</v>
+        <v>827276.8571138013</v>
       </c>
       <c r="J49" t="n">
-        <v>1398665.437706666</v>
+        <v>721330.2702040579</v>
       </c>
       <c r="K49" t="n">
-        <v>922541.3113641115</v>
+        <v>437971.0338562187</v>
       </c>
       <c r="L49" t="n">
-        <v>851801.9428646256</v>
+        <v>588722.9251375345</v>
       </c>
       <c r="M49" t="n">
-        <v>1107332.59140606</v>
+        <v>522472.9982986865</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>Магазин Кемерово</t>
+          <t>ПВЗ СПб 4 (Маршал на Северном)</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>1509004.842020568</v>
+        <v>3234259.2468306</v>
       </c>
       <c r="C50" t="n">
-        <v>1303045.5642293</v>
+        <v>3055383.332235388</v>
       </c>
       <c r="D50" t="n">
-        <v>1974270.415259313</v>
+        <v>3022154.495741764</v>
       </c>
       <c r="E50" t="n">
-        <v>1731073.67255763</v>
+        <v>3179213.576170879</v>
       </c>
       <c r="F50" t="n">
-        <v>1109872.336093123</v>
+        <v>3452253.292272955</v>
       </c>
       <c r="G50" t="n">
-        <v>1317880.224846651</v>
+        <v>2849370.031137408</v>
       </c>
       <c r="H50" t="n">
-        <v>469547.3668017415</v>
+        <v>3135038.219878258</v>
       </c>
       <c r="I50" t="n">
-        <v>549447.1393136234</v>
+        <v>3454788.094311728</v>
       </c>
       <c r="J50" t="n">
-        <v>801435.8362979472</v>
+        <v>3881279.645134547</v>
       </c>
       <c r="K50" t="n">
-        <v>1164246.199402218</v>
+        <v>2965611.170521836</v>
       </c>
       <c r="L50" t="n">
-        <v>466596.2463997062</v>
+        <v>4247642.534764961</v>
       </c>
       <c r="M50" t="n">
-        <v>620648.9246275774</v>
+        <v>3821067.974640359</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>Магазин Краснодар</t>
+          <t>ПВЗ СПб 5 (Маршал на Жукова)</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>2726998.823524395</v>
+        <v>3065417.023255414</v>
       </c>
       <c r="C51" t="n">
-        <v>2641599.35327302</v>
+        <v>3471114.565287166</v>
       </c>
       <c r="D51" t="n">
-        <v>2050895.306837325</v>
+        <v>3609323.803133774</v>
       </c>
       <c r="E51" t="n">
-        <v>2218636.62003722</v>
+        <v>3737631.188840625</v>
       </c>
       <c r="F51" t="n">
-        <v>1590369.024995934</v>
+        <v>3743522.556526595</v>
       </c>
       <c r="G51" t="n">
-        <v>1623958.501853283</v>
+        <v>3413929.755560665</v>
       </c>
       <c r="H51" t="n">
-        <v>1072279.498168536</v>
+        <v>3968213.941254588</v>
       </c>
       <c r="I51" t="n">
-        <v>1145951.064509306</v>
+        <v>4134965.748450368</v>
       </c>
       <c r="J51" t="n">
-        <v>1482123.634668347</v>
+        <v>4649420.16806532</v>
       </c>
       <c r="K51" t="n">
-        <v>1328203.755835638</v>
+        <v>4505433.87194516</v>
       </c>
       <c r="L51" t="n">
-        <v>785472.2205516584</v>
+        <v>4454051.901046075</v>
       </c>
       <c r="M51" t="n">
-        <v>635733.149644823</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Красноярск 1</t>
-        </is>
-      </c>
-      <c r="B52" t="n">
-        <v>2474598.645568777</v>
-      </c>
-      <c r="C52" t="n">
-        <v>2935519.98144584</v>
-      </c>
-      <c r="D52" t="n">
-        <v>1617490.430498262</v>
-      </c>
-      <c r="E52" t="n">
-        <v>2995679.31228552</v>
-      </c>
-      <c r="F52" t="n">
-        <v>2368018.870740896</v>
-      </c>
-      <c r="G52" t="n">
-        <v>3300201.603013908</v>
-      </c>
-      <c r="H52" t="n">
-        <v>2777362.665589801</v>
-      </c>
-      <c r="I52" t="n">
-        <v>1716440.107852943</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2706766.205892571</v>
-      </c>
-      <c r="K52" t="n">
-        <v>1952471.871580521</v>
-      </c>
-      <c r="L52" t="n">
-        <v>3428910.906860347</v>
-      </c>
-      <c r="M52" t="n">
-        <v>3530755.51390151</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="inlineStr">
-        <is>
-          <t>Магазин МСК 3</t>
-        </is>
-      </c>
-      <c r="B53" t="n">
-        <v>1267329.934562316</v>
-      </c>
-      <c r="C53" t="n">
-        <v>1070154.317599532</v>
-      </c>
-      <c r="D53" t="n">
-        <v>1729441.642933753</v>
-      </c>
-      <c r="E53" t="n">
-        <v>2396540.417638263</v>
-      </c>
-      <c r="F53" t="n">
-        <v>1865029.906683111</v>
-      </c>
-      <c r="G53" t="n">
-        <v>1562743.092256796</v>
-      </c>
-      <c r="H53" t="n">
-        <v>1093790.758085442</v>
-      </c>
-      <c r="I53" t="n">
-        <v>1973735.133040981</v>
-      </c>
-      <c r="J53" t="n">
-        <v>2747132.690111239</v>
-      </c>
-      <c r="K53" t="n">
-        <v>1704199.058634998</v>
-      </c>
-      <c r="L53" t="n">
-        <v>1357651.495964164</v>
-      </c>
-      <c r="M53" t="n">
-        <v>1308892.113940048</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="inlineStr">
-        <is>
-          <t>Магазин МСК Балашиха</t>
-        </is>
-      </c>
-      <c r="B54" t="n">
-        <v>1136694.173044647</v>
-      </c>
-      <c r="C54" t="n">
-        <v>831580.8480971514</v>
-      </c>
-      <c r="D54" t="n">
-        <v>442781.1815316339</v>
-      </c>
-      <c r="E54" t="n">
-        <v>992041.5766484824</v>
-      </c>
-      <c r="F54" t="n">
-        <v>282819.4920797208</v>
-      </c>
-      <c r="G54" t="n">
-        <v>228403.8958437047</v>
-      </c>
-      <c r="H54" t="n">
-        <v>453054.9674162157</v>
-      </c>
-      <c r="I54" t="n">
-        <v>1295179.773448822</v>
-      </c>
-      <c r="J54" t="n">
-        <v>700155.7996877173</v>
-      </c>
-      <c r="K54" t="n">
-        <v>1015573.559713113</v>
-      </c>
-      <c r="L54" t="n">
-        <v>562753.7268751909</v>
-      </c>
-      <c r="M54" t="n">
-        <v>672406.0352522782</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="inlineStr">
-        <is>
-          <t>Магазин МСК Кунцево</t>
-        </is>
-      </c>
-      <c r="B55" t="n">
-        <v>1488429.789696986</v>
-      </c>
-      <c r="C55" t="n">
-        <v>2408086.253313281</v>
-      </c>
-      <c r="D55" t="n">
-        <v>1242070.020237293</v>
-      </c>
-      <c r="E55" t="n">
-        <v>2515364.683612792</v>
-      </c>
-      <c r="F55" t="n">
-        <v>1234018.231988358</v>
-      </c>
-      <c r="G55" t="n">
-        <v>571452.6284548617</v>
-      </c>
-      <c r="H55" t="n">
-        <v>697028.8853392331</v>
-      </c>
-      <c r="I55" t="n">
-        <v>352215.9958851589</v>
-      </c>
-      <c r="J55" t="n">
-        <v>1213312.724210831</v>
-      </c>
-      <c r="K55" t="n">
-        <v>599474.0861712834</v>
-      </c>
-      <c r="L55" t="n">
-        <v>69994.32866324298</v>
-      </c>
-      <c r="M55" t="n">
-        <v>-911951.6566141318</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Мурманск</t>
-        </is>
-      </c>
-      <c r="B56" t="n">
-        <v>3348590.457514379</v>
-      </c>
-      <c r="C56" t="n">
-        <v>3175315.487699588</v>
-      </c>
-      <c r="D56" t="n">
-        <v>4654709.269065273</v>
-      </c>
-      <c r="E56" t="n">
-        <v>4000053.277739169</v>
-      </c>
-      <c r="F56" t="n">
-        <v>3226209.054694474</v>
-      </c>
-      <c r="G56" t="n">
-        <v>4404985.776142776</v>
-      </c>
-      <c r="H56" t="n">
-        <v>2863760.866127138</v>
-      </c>
-      <c r="I56" t="n">
-        <v>4205376.206003098</v>
-      </c>
-      <c r="J56" t="n">
-        <v>3366247.309388383</v>
-      </c>
-      <c r="K56" t="n">
-        <v>3966662.490781624</v>
-      </c>
-      <c r="L56" t="n">
-        <v>4802111.298902296</v>
-      </c>
-      <c r="M56" t="n">
-        <v>3980678.777332843</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Нижневартовск</t>
-        </is>
-      </c>
-      <c r="B57" t="n">
-        <v>6185163.702366481</v>
-      </c>
-      <c r="C57" t="n">
-        <v>6050525.311667029</v>
-      </c>
-      <c r="D57" t="n">
-        <v>6516862.087396836</v>
-      </c>
-      <c r="E57" t="n">
-        <v>7825879.316248575</v>
-      </c>
-      <c r="F57" t="n">
-        <v>5844742.047905809</v>
-      </c>
-      <c r="G57" t="n">
-        <v>6546066.326229976</v>
-      </c>
-      <c r="H57" t="n">
-        <v>5957644.872793441</v>
-      </c>
-      <c r="I57" t="n">
-        <v>6082675.730629139</v>
-      </c>
-      <c r="J57" t="n">
-        <v>7585975.653793891</v>
-      </c>
-      <c r="K57" t="n">
-        <v>7913842.406523308</v>
-      </c>
-      <c r="L57" t="n">
-        <v>8128013.029929506</v>
-      </c>
-      <c r="M57" t="n">
-        <v>7871245.503764107</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="inlineStr">
-        <is>
-          <t>Магазин НКЗ</t>
-        </is>
-      </c>
-      <c r="B58" t="n">
-        <v>4636247.833699652</v>
-      </c>
-      <c r="C58" t="n">
-        <v>5088069.896911989</v>
-      </c>
-      <c r="D58" t="n">
-        <v>5367331.193886027</v>
-      </c>
-      <c r="E58" t="n">
-        <v>5442401.750060717</v>
-      </c>
-      <c r="F58" t="n">
-        <v>5985171.234418202</v>
-      </c>
-      <c r="G58" t="n">
-        <v>5662547.801556038</v>
-      </c>
-      <c r="H58" t="n">
-        <v>4119006.015004409</v>
-      </c>
-      <c r="I58" t="n">
-        <v>4647822.58425485</v>
-      </c>
-      <c r="J58" t="n">
-        <v>6705520.368953926</v>
-      </c>
-      <c r="K58" t="n">
-        <v>5509902.039471264</v>
-      </c>
-      <c r="L58" t="n">
-        <v>5731902.838820014</v>
-      </c>
-      <c r="M58" t="n">
-        <v>6216898.696839229</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="inlineStr">
-        <is>
-          <t>Магазин НН Бурнаковский</t>
-        </is>
-      </c>
-      <c r="B59" t="n">
-        <v>2788598.421535665</v>
-      </c>
-      <c r="C59" t="n">
-        <v>2939220.469687619</v>
-      </c>
-      <c r="D59" t="n">
-        <v>3319701.960197432</v>
-      </c>
-      <c r="E59" t="n">
-        <v>3436365.84996559</v>
-      </c>
-      <c r="F59" t="n">
-        <v>3295045.791673514</v>
-      </c>
-      <c r="G59" t="n">
-        <v>4772842.377347287</v>
-      </c>
-      <c r="H59" t="n">
-        <v>3931193.233748526</v>
-      </c>
-      <c r="I59" t="n">
-        <v>2848929.197903763</v>
-      </c>
-      <c r="J59" t="n">
-        <v>4321833.690405383</v>
-      </c>
-      <c r="K59" t="n">
-        <v>4991209.316439066</v>
-      </c>
-      <c r="L59" t="n">
-        <v>3948630.323880744</v>
-      </c>
-      <c r="M59" t="n">
-        <v>4056556.035538591</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="inlineStr">
-        <is>
-          <t>Магазин НН Ларина</t>
-        </is>
-      </c>
-      <c r="B60" t="n">
-        <v>4354854.323034001</v>
-      </c>
-      <c r="C60" t="n">
-        <v>5101528.650914938</v>
-      </c>
-      <c r="D60" t="n">
-        <v>6401177.841210094</v>
-      </c>
-      <c r="E60" t="n">
-        <v>4617222.097279425</v>
-      </c>
-      <c r="F60" t="n">
-        <v>5423768.112061517</v>
-      </c>
-      <c r="G60" t="n">
-        <v>5149115.431869492</v>
-      </c>
-      <c r="H60" t="n">
-        <v>4342273.892456203</v>
-      </c>
-      <c r="I60" t="n">
-        <v>4688206.20331713</v>
-      </c>
-      <c r="J60" t="n">
-        <v>4618294.113027463</v>
-      </c>
-      <c r="K60" t="n">
-        <v>4960741.549918045</v>
-      </c>
-      <c r="L60" t="n">
-        <v>6069060.143436363</v>
-      </c>
-      <c r="M60" t="n">
-        <v>5593359.761863839</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="inlineStr">
-        <is>
-          <t>Магазин СПб Богатырский</t>
-        </is>
-      </c>
-      <c r="B61" t="n">
-        <v>2436534.648272105</v>
-      </c>
-      <c r="C61" t="n">
-        <v>2122628.806440302</v>
-      </c>
-      <c r="D61" t="n">
-        <v>1398117.273191606</v>
-      </c>
-      <c r="E61" t="n">
-        <v>2294535.288291176</v>
-      </c>
-      <c r="F61" t="n">
-        <v>2277654.053598023</v>
-      </c>
-      <c r="G61" t="n">
-        <v>3329368.983011508</v>
-      </c>
-      <c r="H61" t="n">
-        <v>1171899.554841995</v>
-      </c>
-      <c r="I61" t="n">
-        <v>1198999.017575955</v>
-      </c>
-      <c r="J61" t="n">
-        <v>2723923.89781393</v>
-      </c>
-      <c r="K61" t="n">
-        <v>3080740.659248811</v>
-      </c>
-      <c r="L61" t="n">
-        <v>2790632.293006347</v>
-      </c>
-      <c r="M61" t="n">
-        <v>2659950.574297236</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="inlineStr">
-        <is>
-          <t>Магазин СПб Софийская</t>
-        </is>
-      </c>
-      <c r="B62" t="n">
-        <v>5883915.572130542</v>
-      </c>
-      <c r="C62" t="n">
-        <v>4469061.654406999</v>
-      </c>
-      <c r="D62" t="n">
-        <v>6048755.977980461</v>
-      </c>
-      <c r="E62" t="n">
-        <v>4858572.439472068</v>
-      </c>
-      <c r="F62" t="n">
-        <v>5795262.110876581</v>
-      </c>
-      <c r="G62" t="n">
-        <v>6952628.460536041</v>
-      </c>
-      <c r="H62" t="n">
-        <v>5229309.333807834</v>
-      </c>
-      <c r="I62" t="n">
-        <v>5195564.89938553</v>
-      </c>
-      <c r="J62" t="n">
-        <v>7263837.738234499</v>
-      </c>
-      <c r="K62" t="n">
-        <v>5638009.447182092</v>
-      </c>
-      <c r="L62" t="n">
-        <v>5181619.614121733</v>
-      </c>
-      <c r="M62" t="n">
-        <v>5314170.825445731</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="inlineStr">
-        <is>
-          <t>Магазин СПб Энергетиков</t>
-        </is>
-      </c>
-      <c r="B63" t="n">
-        <v>3380976.718593558</v>
-      </c>
-      <c r="C63" t="n">
-        <v>3614766.384687673</v>
-      </c>
-      <c r="D63" t="n">
-        <v>4160986.193219034</v>
-      </c>
-      <c r="E63" t="n">
-        <v>3056416.016597433</v>
-      </c>
-      <c r="F63" t="n">
-        <v>4010794.854142292</v>
-      </c>
-      <c r="G63" t="n">
-        <v>4119521.558520155</v>
-      </c>
-      <c r="H63" t="n">
-        <v>3027692.378060315</v>
-      </c>
-      <c r="I63" t="n">
-        <v>3397289.245837255</v>
-      </c>
-      <c r="J63" t="n">
-        <v>4089248.766662196</v>
-      </c>
-      <c r="K63" t="n">
-        <v>4729433.508633143</v>
-      </c>
-      <c r="L63" t="n">
-        <v>4714132.458706937</v>
-      </c>
-      <c r="M63" t="n">
-        <v>3938024.899476283</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Сургут</t>
-        </is>
-      </c>
-      <c r="B64" t="n">
-        <v>1493670.043842275</v>
-      </c>
-      <c r="C64" t="n">
-        <v>1759319.203863665</v>
-      </c>
-      <c r="D64" t="n">
-        <v>2161010.199496857</v>
-      </c>
-      <c r="E64" t="n">
-        <v>2268946.117046712</v>
-      </c>
-      <c r="F64" t="n">
-        <v>1745919.678163976</v>
-      </c>
-      <c r="G64" t="n">
-        <v>2408637.549148374</v>
-      </c>
-      <c r="H64" t="n">
-        <v>2169704.061498849</v>
-      </c>
-      <c r="I64" t="n">
-        <v>2062112.006003393</v>
-      </c>
-      <c r="J64" t="n">
-        <v>3811537.210587464</v>
-      </c>
-      <c r="K64" t="n">
-        <v>2290917.128916738</v>
-      </c>
-      <c r="L64" t="n">
-        <v>2140806.527910492</v>
-      </c>
-      <c r="M64" t="n">
-        <v>2621255.999610998</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Сургут 2</t>
-        </is>
-      </c>
-      <c r="B65" t="n">
-        <v>1688868.56899073</v>
-      </c>
-      <c r="C65" t="n">
-        <v>1645466.353810658</v>
-      </c>
-      <c r="D65" t="n">
-        <v>1632408.93430314</v>
-      </c>
-      <c r="E65" t="n">
-        <v>1749904.290560634</v>
-      </c>
-      <c r="F65" t="n">
-        <v>1443384.03676427</v>
-      </c>
-      <c r="G65" t="n">
-        <v>1425508.31067752</v>
-      </c>
-      <c r="H65" t="n">
-        <v>1514678.391303124</v>
-      </c>
-      <c r="I65" t="n">
-        <v>1594344.37229958</v>
-      </c>
-      <c r="J65" t="n">
-        <v>1873348.058232076</v>
-      </c>
-      <c r="K65" t="n">
-        <v>2970144.648553228</v>
-      </c>
-      <c r="L65" t="n">
-        <v>3610113.966504708</v>
-      </c>
-      <c r="M65" t="n">
-        <v>2946115.812381445</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Хабаровск Индустриальный</t>
-        </is>
-      </c>
-      <c r="B66" t="n">
-        <v>4906947.74172909</v>
-      </c>
-      <c r="C66" t="n">
-        <v>5401153.564443504</v>
-      </c>
-      <c r="D66" t="n">
-        <v>6730608.533935357</v>
-      </c>
-      <c r="E66" t="n">
-        <v>6671470.613088768</v>
-      </c>
-      <c r="F66" t="n">
-        <v>6152605.431755217</v>
-      </c>
-      <c r="G66" t="n">
-        <v>6911111.553234136</v>
-      </c>
-      <c r="H66" t="n">
-        <v>7515620.844306162</v>
-      </c>
-      <c r="I66" t="n">
-        <v>7112961.762244704</v>
-      </c>
-      <c r="J66" t="n">
-        <v>7841363.182106788</v>
-      </c>
-      <c r="K66" t="n">
-        <v>9070195.350422118</v>
-      </c>
-      <c r="L66" t="n">
-        <v>7949060.2924244</v>
-      </c>
-      <c r="M66" t="n">
-        <v>7805961.878143597</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="inlineStr">
-        <is>
-          <t>ПВЗ Инфор</t>
-        </is>
-      </c>
-      <c r="B67" t="n">
-        <v>879724.7973668595</v>
-      </c>
-      <c r="C67" t="n">
-        <v>794780.6358828553</v>
-      </c>
-      <c r="D67" t="n">
-        <v>1143874.430763731</v>
-      </c>
-      <c r="E67" t="n">
-        <v>758600.1537172233</v>
-      </c>
-      <c r="F67" t="n">
-        <v>817909.3483960798</v>
-      </c>
-      <c r="G67" t="n">
-        <v>973344.3040983682</v>
-      </c>
-      <c r="H67" t="n">
-        <v>733018.5819525633</v>
-      </c>
-      <c r="I67" t="n">
-        <v>1020323.747099469</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1279808.729771604</v>
-      </c>
-      <c r="K67" t="n">
-        <v>1181730.536531085</v>
-      </c>
-      <c r="L67" t="n">
-        <v>924069.5007394209</v>
-      </c>
-      <c r="M67" t="n">
-        <v>1102701.581594578</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="inlineStr">
-        <is>
-          <t>ПВЗ СПб 4 (Маршал на Северном)</t>
-        </is>
-      </c>
-      <c r="B68" t="n">
-        <v>3238928.034093361</v>
-      </c>
-      <c r="C68" t="n">
-        <v>3463154.69421982</v>
-      </c>
-      <c r="D68" t="n">
-        <v>3249459.02750111</v>
-      </c>
-      <c r="E68" t="n">
-        <v>3277617.744293435</v>
-      </c>
-      <c r="F68" t="n">
-        <v>3456635.648448296</v>
-      </c>
-      <c r="G68" t="n">
-        <v>3752480.213845408</v>
-      </c>
-      <c r="H68" t="n">
-        <v>3209332.980709411</v>
-      </c>
-      <c r="I68" t="n">
-        <v>3545751.185590095</v>
-      </c>
-      <c r="J68" t="n">
-        <v>3893239.793561034</v>
-      </c>
-      <c r="K68" t="n">
-        <v>4374860.40845688</v>
-      </c>
-      <c r="L68" t="n">
-        <v>3462437.713575692</v>
-      </c>
-      <c r="M68" t="n">
-        <v>4794662.030754854</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="inlineStr">
-        <is>
-          <t>ПВЗ СПб 5 (Маршал на Жукова)</t>
-        </is>
-      </c>
-      <c r="B69" t="n">
-        <v>3273399.345939165</v>
-      </c>
-      <c r="C69" t="n">
-        <v>3354688.650445556</v>
-      </c>
-      <c r="D69" t="n">
-        <v>4047464.688185252</v>
-      </c>
-      <c r="E69" t="n">
-        <v>4043722.403235765</v>
-      </c>
-      <c r="F69" t="n">
-        <v>4386632.476685019</v>
-      </c>
-      <c r="G69" t="n">
-        <v>4326111.035539925</v>
-      </c>
-      <c r="H69" t="n">
-        <v>4111096.450919944</v>
-      </c>
-      <c r="I69" t="n">
-        <v>4653684.455419484</v>
-      </c>
-      <c r="J69" t="n">
-        <v>4996252.283175832</v>
-      </c>
-      <c r="K69" t="n">
-        <v>5490673.528767831</v>
-      </c>
-      <c r="L69" t="n">
-        <v>5468278.809926338</v>
-      </c>
-      <c r="M69" t="n">
-        <v>5380169.363861744</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Ковригин  (Kz)</t>
-        </is>
-      </c>
-      <c r="B70" t="n">
-        <v>7718485.027140429</v>
-      </c>
-      <c r="C70" t="n">
-        <v>6178857.229607393</v>
-      </c>
-      <c r="D70" t="n">
-        <v>9711813.977469157</v>
-      </c>
-      <c r="E70" t="n">
-        <v>10782279.16807637</v>
-      </c>
-      <c r="F70" t="n">
-        <v>10699053.63343436</v>
-      </c>
-      <c r="G70" t="n">
-        <v>11375551.15696509</v>
-      </c>
-      <c r="H70" t="n">
-        <v>10829781.4695424</v>
-      </c>
-      <c r="I70" t="n">
-        <v>10721806.63288541</v>
-      </c>
-      <c r="J70" t="n">
-        <v>8855430.280751616</v>
-      </c>
-      <c r="K70" t="n">
-        <v>10308178.98543489</v>
-      </c>
-      <c r="L70" t="n">
-        <v>10392457.97299697</v>
-      </c>
-      <c r="M70" t="n">
-        <v>12146636.26833374</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Концевой</t>
-        </is>
-      </c>
-      <c r="B71" t="n">
-        <v>19246080.66033528</v>
-      </c>
-      <c r="C71" t="n">
-        <v>18574773.05471573</v>
-      </c>
-      <c r="D71" t="n">
-        <v>20487482.49884251</v>
-      </c>
-      <c r="E71" t="n">
-        <v>21988385.8754115</v>
-      </c>
-      <c r="F71" t="n">
-        <v>25630654.0993058</v>
-      </c>
-      <c r="G71" t="n">
-        <v>48406047.55975978</v>
-      </c>
-      <c r="H71" t="n">
-        <v>16366676.02496919</v>
-      </c>
-      <c r="I71" t="n">
-        <v>29962376.58577725</v>
-      </c>
-      <c r="J71" t="n">
-        <v>27101536.72474536</v>
-      </c>
-      <c r="K71" t="n">
-        <v>34499080.56275798</v>
-      </c>
-      <c r="L71" t="n">
-        <v>37896995.79905838</v>
-      </c>
-      <c r="M71" t="n">
-        <v>39660138.73894953</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Мараев (АлРоса)</t>
-        </is>
-      </c>
-      <c r="B72" t="n">
-        <v>799190.0397899523</v>
-      </c>
-      <c r="C72" t="n">
-        <v>-1008237.676281502</v>
-      </c>
-      <c r="D72" t="n">
-        <v>4314613.46360869</v>
-      </c>
-      <c r="E72" t="n">
-        <v>-3726366.259356052</v>
-      </c>
-      <c r="F72" t="n">
-        <v>4467136.432641627</v>
-      </c>
-      <c r="G72" t="n">
-        <v>-1844156.696415886</v>
-      </c>
-      <c r="H72" t="n">
-        <v>-3612150.513231717</v>
-      </c>
-      <c r="I72" t="n">
-        <v>2856945.748295333</v>
-      </c>
-      <c r="J72" t="n">
-        <v>3922425.471995068</v>
-      </c>
-      <c r="K72" t="n">
-        <v>-3239361.893493066</v>
-      </c>
-      <c r="L72" t="n">
-        <v>6161648.711843587</v>
-      </c>
-      <c r="M72" t="n">
-        <v>-6970072.264256351</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Мищенко (МетИнв)</t>
-        </is>
-      </c>
-      <c r="B73" t="n">
-        <v>9494517.335489063</v>
-      </c>
-      <c r="C73" t="n">
-        <v>10567696.91445321</v>
-      </c>
-      <c r="D73" t="n">
-        <v>11097608.55123774</v>
-      </c>
-      <c r="E73" t="n">
-        <v>14666715.52765209</v>
-      </c>
-      <c r="F73" t="n">
-        <v>12876194.33070106</v>
-      </c>
-      <c r="G73" t="n">
-        <v>16008313.60397459</v>
-      </c>
-      <c r="H73" t="n">
-        <v>15635028.91637336</v>
-      </c>
-      <c r="I73" t="n">
-        <v>19615663.24033684</v>
-      </c>
-      <c r="J73" t="n">
-        <v>22289976.82890957</v>
-      </c>
-      <c r="K73" t="n">
-        <v>23387849.87876827</v>
-      </c>
-      <c r="L73" t="n">
-        <v>27347014.94428623</v>
-      </c>
-      <c r="M73" t="n">
-        <v>25262953.01607693</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Попов</t>
-        </is>
-      </c>
-      <c r="B74" t="n">
-        <v>18880234.56353832</v>
-      </c>
-      <c r="C74" t="n">
-        <v>13125650.31748314</v>
-      </c>
-      <c r="D74" t="n">
-        <v>15746736.54189067</v>
-      </c>
-      <c r="E74" t="n">
-        <v>15922722.04427985</v>
-      </c>
-      <c r="F74" t="n">
-        <v>16343496.29311045</v>
-      </c>
-      <c r="G74" t="n">
-        <v>25279785.4405656</v>
-      </c>
-      <c r="H74" t="n">
-        <v>11119191.38079126</v>
-      </c>
-      <c r="I74" t="n">
-        <v>23031827.40157416</v>
-      </c>
-      <c r="J74" t="n">
-        <v>23222344.74095349</v>
-      </c>
-      <c r="K74" t="n">
-        <v>24318597.2653035</v>
-      </c>
-      <c r="L74" t="n">
-        <v>24598127.58393626</v>
-      </c>
-      <c r="M74" t="n">
-        <v>22796993.02130696</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Филиппов</t>
-        </is>
-      </c>
-      <c r="B75" t="n">
-        <v>27978811.00231999</v>
-      </c>
-      <c r="C75" t="n">
-        <v>30732996.83738973</v>
-      </c>
-      <c r="D75" t="n">
-        <v>30373714.59830913</v>
-      </c>
-      <c r="E75" t="n">
-        <v>30385281.48336777</v>
-      </c>
-      <c r="F75" t="n">
-        <v>31613893.07653178</v>
-      </c>
-      <c r="G75" t="n">
-        <v>47549211.42674488</v>
-      </c>
-      <c r="H75" t="n">
-        <v>26153737.30204658</v>
-      </c>
-      <c r="I75" t="n">
-        <v>23158692.43469202</v>
-      </c>
-      <c r="J75" t="n">
-        <v>32964998.64383152</v>
-      </c>
-      <c r="K75" t="n">
-        <v>31256640.56498877</v>
-      </c>
-      <c r="L75" t="n">
-        <v>37947539.39194579</v>
-      </c>
-      <c r="M75" t="n">
-        <v>41051492.71519535</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Шугай (Русал)</t>
-        </is>
-      </c>
-      <c r="B76" t="n">
-        <v>13698990.25116313</v>
-      </c>
-      <c r="C76" t="n">
-        <v>14245906.37169835</v>
-      </c>
-      <c r="D76" t="n">
-        <v>15177841.52851443</v>
-      </c>
-      <c r="E76" t="n">
-        <v>16416571.62199572</v>
-      </c>
-      <c r="F76" t="n">
-        <v>17224522.37665815</v>
-      </c>
-      <c r="G76" t="n">
-        <v>18888572.99494411</v>
-      </c>
-      <c r="H76" t="n">
-        <v>18781389.55642279</v>
-      </c>
-      <c r="I76" t="n">
-        <v>20661420.116755</v>
-      </c>
-      <c r="J76" t="n">
-        <v>24679023.91050472</v>
-      </c>
-      <c r="K76" t="n">
-        <v>28291397.42968975</v>
-      </c>
-      <c r="L76" t="n">
-        <v>30002787.00144315</v>
-      </c>
-      <c r="M76" t="n">
-        <v>31834959.50797088</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Ясиновер (УГМК)</t>
-        </is>
-      </c>
-      <c r="B77" t="n">
-        <v>21598365.52355047</v>
-      </c>
-      <c r="C77" t="n">
-        <v>22383761.20460174</v>
-      </c>
-      <c r="D77" t="n">
-        <v>27699052.40759001</v>
-      </c>
-      <c r="E77" t="n">
-        <v>33017572.21588081</v>
-      </c>
-      <c r="F77" t="n">
-        <v>34783840.95634757</v>
-      </c>
-      <c r="G77" t="n">
-        <v>30505072.29216586</v>
-      </c>
-      <c r="H77" t="n">
-        <v>30103683.0114891</v>
-      </c>
-      <c r="I77" t="n">
-        <v>34275466.32778923</v>
-      </c>
-      <c r="J77" t="n">
-        <v>35062145.15986449</v>
-      </c>
-      <c r="K77" t="n">
-        <v>37940453.69893346</v>
-      </c>
-      <c r="L77" t="n">
-        <v>38700469.18631061</v>
-      </c>
-      <c r="M77" t="n">
-        <v>46358996.4473516</v>
+        <v>4575267.351344992</v>
       </c>
     </row>
   </sheetData>
